--- a/data/geography_data.xlsx
+++ b/data/geography_data.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\anp-website\alexandpedro.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D3B2F6AB-1AAB-44A3-BFFA-52DF25ED2241}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D497B1-B49E-4472-8F75-ED9CBC1210B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="75" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="75" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geography_data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -295,7 +306,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1149,16 +1160,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="53.28515625" customWidth="1"/>
     <col min="11" max="11" width="44.7109375" customWidth="1"/>

--- a/data/geography_data.xlsx
+++ b/data/geography_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\anp-website\alexandpedro.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D497B1-B49E-4472-8F75-ED9CBC1210B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D843EB-E44A-4EAA-8FE3-5F9EEB383366}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="75" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="210" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geography_data" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="127">
   <si>
     <t>name</t>
   </si>
@@ -129,9 +129,6 @@
     <t>Lobopulân</t>
   </si>
   <si>
-    <t>Lobosacagado</t>
-  </si>
-  <si>
     <t>Wâlobolan</t>
   </si>
   <si>
@@ -285,9 +282,6 @@
     <t>lobo + pulân = lobopulân (wolf plain)</t>
   </si>
   <si>
-    <t>lobo sa cagado = lobosacagado (wolf territory)</t>
-  </si>
-  <si>
     <t>weya + lobo + lando = wâlobolan (werewolf land)</t>
   </si>
   <si>
@@ -301,13 +295,130 @@
   </si>
   <si>
     <t>Tumang Plains (fox plains)</t>
+  </si>
+  <si>
+    <t>Lobosangado</t>
+  </si>
+  <si>
+    <t>lobo sa sangado = lobosangado (wolf territory)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fang City </t>
+  </si>
+  <si>
+    <t>Fang + City</t>
+  </si>
+  <si>
+    <t>Fanglan</t>
+  </si>
+  <si>
+    <t>Fangpulân</t>
+  </si>
+  <si>
+    <t>Fenrir</t>
+  </si>
+  <si>
+    <t>Langila</t>
+  </si>
+  <si>
+    <t>Lupinewood</t>
+  </si>
+  <si>
+    <t>Lupinîla</t>
+  </si>
+  <si>
+    <t>Lupînlan</t>
+  </si>
+  <si>
+    <t>Lupînpulân</t>
+  </si>
+  <si>
+    <t>Pangan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pangila </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pangilan City </t>
+  </si>
+  <si>
+    <t>Sarafanga</t>
+  </si>
+  <si>
+    <t>Wanar</t>
+  </si>
+  <si>
+    <t>Warîla</t>
+  </si>
+  <si>
+    <t>Warlan</t>
+  </si>
+  <si>
+    <t>Warpulân</t>
+  </si>
+  <si>
+    <t>Warshan</t>
+  </si>
+  <si>
+    <t>Wenrir</t>
+  </si>
+  <si>
+    <t>Wikan</t>
+  </si>
+  <si>
+    <t>Wikila</t>
+  </si>
+  <si>
+    <t>Wilan</t>
+  </si>
+  <si>
+    <t>Wilpulân</t>
+  </si>
+  <si>
+    <t>Wolan</t>
+  </si>
+  <si>
+    <t>Inulan</t>
+  </si>
+  <si>
+    <t>Pawesome Town</t>
+  </si>
+  <si>
+    <t>Balto</t>
+  </si>
+  <si>
+    <t>Hacikō</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Lîka</t>
+  </si>
+  <si>
+    <t>Rabi City</t>
+  </si>
+  <si>
+    <t>wîlhop</t>
+  </si>
+  <si>
+    <t>Wild Hops</t>
+  </si>
+  <si>
+    <t>Fifurlan</t>
+  </si>
+  <si>
+    <t>Fenarlan</t>
+  </si>
+  <si>
+    <t>Rabbit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,12 +552,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -799,12 +904,14 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1161,23 +1268,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="53.28515625" customWidth="1"/>
-    <col min="11" max="11" width="44.7109375" customWidth="1"/>
-    <col min="12" max="12" width="36.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="53.28515625" style="1" customWidth="1"/>
+    <col min="5" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="44.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="36.42578125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1191,523 +1301,929 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>58</v>
+      <c r="D5" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>59</v>
+      <c r="D6" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>60</v>
+      <c r="D7" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>61</v>
+      <c r="D8" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>37</v>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>62</v>
+      <c r="D10" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>63</v>
+      <c r="D11" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>64</v>
+      <c r="D12" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>65</v>
+      <c r="D13" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>66</v>
+      <c r="D14" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>67</v>
+      <c r="D15" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>68</v>
+      <c r="D16" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>54</v>
+      <c r="D17" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>70</v>
+      <c r="D18" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>72</v>
+      <c r="D19" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>74</v>
+      <c r="D20" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="O61" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" t="s">
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="B70" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="4" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>89</v>
+      <c r="C72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/data/geography_data.xlsx
+++ b/data/geography_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\anp-website\alexandpedro.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D843EB-E44A-4EAA-8FE3-5F9EEB383366}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50A9378-2C8B-4E95-A621-9F020A459371}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="210" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="75" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geography_data" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="130">
   <si>
     <t>name</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Lobolan</t>
   </si>
   <si>
-    <t>a province</t>
-  </si>
-  <si>
     <t>PAN</t>
   </si>
   <si>
@@ -159,51 +156,12 @@
     <t>Tumang Plains</t>
   </si>
   <si>
-    <t>TUM</t>
-  </si>
-  <si>
     <t>layo furoti = lîroti (far frontier)</t>
   </si>
   <si>
-    <t>LOP</t>
-  </si>
-  <si>
-    <t>HOR</t>
-  </si>
-  <si>
-    <t>LIB</t>
-  </si>
-  <si>
-    <t>LOB</t>
-  </si>
-  <si>
-    <t>INA</t>
-  </si>
-  <si>
-    <t>DAM</t>
-  </si>
-  <si>
-    <t>MIK</t>
-  </si>
-  <si>
-    <t>MIL</t>
-  </si>
-  <si>
-    <t>DAS</t>
-  </si>
-  <si>
     <t>sôsu îla = sôsîla (southern island)</t>
   </si>
   <si>
-    <t>NOS</t>
-  </si>
-  <si>
-    <t>LIN</t>
-  </si>
-  <si>
-    <t>LIR</t>
-  </si>
-  <si>
     <t>lawa pulân = lopulân (wide plain)</t>
   </si>
   <si>
@@ -237,30 +195,18 @@
     <t>dami shan lando = damshanlan (a lot of mountain land)</t>
   </si>
   <si>
-    <t>SOS</t>
-  </si>
-  <si>
     <t>ēsu + pa = ēspa island (west part island)</t>
   </si>
   <si>
-    <t>ESP</t>
-  </si>
-  <si>
     <t>dapangi + sangado = dapangisangado (wolf territory)</t>
   </si>
   <si>
-    <t>DAP</t>
-  </si>
-  <si>
     <t>tumang + pulân = tumampulân (fox plain)</t>
   </si>
   <si>
     <t>agala + lando = agalando (eagle land)</t>
   </si>
   <si>
-    <t>AGA</t>
-  </si>
-  <si>
     <t>hulkînman + pulân = hulkân</t>
   </si>
   <si>
@@ -412,6 +358,69 @@
   </si>
   <si>
     <t>Rabbit</t>
+  </si>
+  <si>
+    <t>a province (NOS)</t>
+  </si>
+  <si>
+    <t>a province (AGA)</t>
+  </si>
+  <si>
+    <t>a province (ASO)</t>
+  </si>
+  <si>
+    <t>a province (DAM)</t>
+  </si>
+  <si>
+    <t>a province (DAS)</t>
+  </si>
+  <si>
+    <t>a province (DAP)</t>
+  </si>
+  <si>
+    <t>a province (ESP)</t>
+  </si>
+  <si>
+    <t>a province (HOR)</t>
+  </si>
+  <si>
+    <t>a province (INA)</t>
+  </si>
+  <si>
+    <t>a province (LIB)</t>
+  </si>
+  <si>
+    <t>a province (LIN)</t>
+  </si>
+  <si>
+    <t>a province (LIR)</t>
+  </si>
+  <si>
+    <t>a province (LOB)</t>
+  </si>
+  <si>
+    <t>a province (LOP)</t>
+  </si>
+  <si>
+    <t>a province (MIK)</t>
+  </si>
+  <si>
+    <t>a province (MIL)</t>
+  </si>
+  <si>
+    <t>a province (PAN)</t>
+  </si>
+  <si>
+    <t>a province (SOS)</t>
+  </si>
+  <si>
+    <t>a province (TUM)</t>
+  </si>
+  <si>
+    <t>a province (TUB)</t>
+  </si>
+  <si>
+    <t>TUB</t>
   </si>
 </sst>
 </file>
@@ -1270,16 +1279,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="53.28515625" style="1" customWidth="1"/>
     <col min="5" max="10" width="9.140625" style="1"/>
     <col min="11" max="11" width="44.7109375" style="1" customWidth="1"/>
@@ -1303,720 +1312,646 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>54</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O6" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="K6" s="3"/>
+      <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>56</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="P8" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="K8" s="3"/>
+      <c r="P8" s="3"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>45</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>6</v>
+        <v>122</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>6</v>
+        <v>124</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>50</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>51</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>52</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="M19" s="3"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>68</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="P20" s="3"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K22" s="3"/>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K23" s="3"/>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E22" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>42</v>
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D54" s="2"/>
     </row>
@@ -2034,199 +1969,198 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="C60" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="O61" s="3" t="s">
-        <v>75</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="K61" s="3"/>
+      <c r="O61" s="3"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D65" s="2"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D21">
+    <sortCondition ref="A2:A21"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/geography_data.xlsx
+++ b/data/geography_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\anp-website\alexandpedro.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50A9378-2C8B-4E95-A621-9F020A459371}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C074028-31C0-419E-B00E-EE94B43217FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="75" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-240" yWindow="7365" windowWidth="29040" windowHeight="15255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geography_data" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="170">
   <si>
     <t>name</t>
   </si>
@@ -421,6 +421,126 @@
   </si>
   <si>
     <t>TUB</t>
+  </si>
+  <si>
+    <t>Fang + lan</t>
+  </si>
+  <si>
+    <t>Fang + pulân</t>
+  </si>
+  <si>
+    <t>Agala City</t>
+  </si>
+  <si>
+    <t>AGA</t>
+  </si>
+  <si>
+    <t>agala = eagle</t>
+  </si>
+  <si>
+    <t>DAS</t>
+  </si>
+  <si>
+    <t>DAP</t>
+  </si>
+  <si>
+    <t>LIB</t>
+  </si>
+  <si>
+    <t>Higelan</t>
+  </si>
+  <si>
+    <t>Labolan</t>
+  </si>
+  <si>
+    <t>Nuktelan</t>
+  </si>
+  <si>
+    <t>Wanlan</t>
+  </si>
+  <si>
+    <t>Wandralan</t>
+  </si>
+  <si>
+    <t>Wanzarlan</t>
+  </si>
+  <si>
+    <t>Wence</t>
+  </si>
+  <si>
+    <t>Wilbit</t>
+  </si>
+  <si>
+    <t>Wilbrus</t>
+  </si>
+  <si>
+    <t>Wilbuch</t>
+  </si>
+  <si>
+    <t>Wilkil</t>
+  </si>
+  <si>
+    <t>Wilpay</t>
+  </si>
+  <si>
+    <t>Wir</t>
+  </si>
+  <si>
+    <t>Wiska</t>
+  </si>
+  <si>
+    <t>Wolks</t>
+  </si>
+  <si>
+    <t>Wonal</t>
+  </si>
+  <si>
+    <t>Wopine</t>
+  </si>
+  <si>
+    <t>Wrath</t>
+  </si>
+  <si>
+    <t>Wudkil</t>
+  </si>
+  <si>
+    <t>Wur</t>
+  </si>
+  <si>
+    <t>Wighte</t>
+  </si>
+  <si>
+    <t>Wolten</t>
+  </si>
+  <si>
+    <t>Wanter</t>
+  </si>
+  <si>
+    <t>LOB</t>
+  </si>
+  <si>
+    <t>TUM</t>
+  </si>
+  <si>
+    <t>Alopekolan</t>
+  </si>
+  <si>
+    <t>Kitune</t>
+  </si>
+  <si>
+    <t>Konkon</t>
+  </si>
+  <si>
+    <t>Renard</t>
+  </si>
+  <si>
+    <t>Ringding</t>
+  </si>
+  <si>
+    <t>Tumanglan</t>
+  </si>
+  <si>
+    <t>Tumangpulân</t>
   </si>
 </sst>
 </file>
@@ -1277,11 +1397,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q75"/>
+  <dimension ref="A1:Q119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1569,29 +1689,28 @@
       <c r="M22" s="3"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="K23" s="3"/>
-      <c r="O23" s="3"/>
+      <c r="M23" s="3"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="K24" s="3"/>
+      <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>6</v>
@@ -1600,12 +1719,15 @@
         <v>32</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>6</v>
@@ -1614,12 +1736,12 @@
         <v>32</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>6</v>
@@ -1628,12 +1750,12 @@
         <v>32</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>6</v>
@@ -1642,12 +1764,12 @@
         <v>32</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>6</v>
@@ -1656,12 +1778,12 @@
         <v>32</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>6</v>
@@ -1670,12 +1792,12 @@
         <v>32</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>6</v>
@@ -1684,45 +1806,54 @@
         <v>32</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>6</v>
@@ -1733,7 +1864,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>6</v>
@@ -1744,7 +1875,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>6</v>
@@ -1755,7 +1886,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>6</v>
@@ -1766,7 +1897,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>6</v>
@@ -1777,7 +1908,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>6</v>
@@ -1785,11 +1916,10 @@
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>6</v>
@@ -1801,7 +1931,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>6</v>
@@ -1813,7 +1943,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>6</v>
@@ -2155,6 +2285,296 @@
       </c>
       <c r="C75" s="1" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B89" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B91" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/data/geography_data.xlsx
+++ b/data/geography_data.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\anp-website\alexandpedro.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A01833B0-3AAA-40DD-A0AC-FC7F9D252353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FF1FD5-4760-43D7-9A8E-53F5E5904741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geography_data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="446">
   <si>
     <t>name</t>
   </si>
@@ -1319,6 +1318,57 @@
   </si>
   <si>
     <t>from Asolan</t>
+  </si>
+  <si>
+    <t>Japanese &lt;i&gt;hachiko&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Japanese &lt;i&gt;inu&lt;/i&gt; + lando</t>
+  </si>
+  <si>
+    <t>Laika the space dog</t>
+  </si>
+  <si>
+    <t>Prefix Pang-</t>
+  </si>
+  <si>
+    <t>wolf prefix Pan- + raccoon affix raki</t>
+  </si>
+  <si>
+    <t>Pawesome the superdog</t>
+  </si>
+  <si>
+    <t>Possibly from Pangilan</t>
+  </si>
+  <si>
+    <t>Wilfor the Wolf</t>
+  </si>
+  <si>
+    <t>Wolf + raku</t>
+  </si>
+  <si>
+    <t>Adler the Eagle</t>
+  </si>
+  <si>
+    <t>Agile the Eagle</t>
+  </si>
+  <si>
+    <t>Agle the Eagle</t>
+  </si>
+  <si>
+    <t>Agala + shan (eagle mountain)</t>
+  </si>
+  <si>
+    <t>Agala + coyote affix ate</t>
+  </si>
+  <si>
+    <t>Agema the Eagle + shan</t>
+  </si>
+  <si>
+    <t>Agila + lando</t>
+  </si>
+  <si>
+    <t>Land of Andy</t>
   </si>
 </sst>
 </file>
@@ -2208,9 +2258,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S211"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2969,7 +3019,9 @@
       <c r="E55" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F55" s="2"/>
+      <c r="F55" s="2" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
@@ -2987,6 +3039,9 @@
       <c r="E56" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F56" s="1" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
@@ -3026,6 +3081,9 @@
       <c r="E58" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F58" s="1" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -3043,6 +3101,9 @@
       <c r="E59" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F59" s="1" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
@@ -3077,6 +3138,9 @@
       <c r="E61" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F61" s="1" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -3094,6 +3158,9 @@
       <c r="E62" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F62" s="1" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
@@ -3111,6 +3178,9 @@
       <c r="E63" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F63" s="1" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
@@ -3148,6 +3218,9 @@
       <c r="E65" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F65" s="1" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
@@ -3165,6 +3238,9 @@
       <c r="E66" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F66" s="1" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
@@ -3182,6 +3258,9 @@
       <c r="E68" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F68" s="1" t="s">
+        <v>438</v>
+      </c>
       <c r="M68" s="3"/>
       <c r="Q68" s="3"/>
     </row>
@@ -3201,6 +3280,9 @@
       <c r="E69" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F69" s="1" t="s">
+        <v>441</v>
+      </c>
       <c r="M69" s="3"/>
       <c r="Q69" s="3"/>
     </row>
@@ -3220,6 +3302,9 @@
       <c r="E70" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F70" s="1" t="s">
+        <v>442</v>
+      </c>
       <c r="M70" s="3"/>
       <c r="Q70" s="3"/>
     </row>
@@ -3239,6 +3324,9 @@
       <c r="E71" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F71" s="1" t="s">
+        <v>443</v>
+      </c>
       <c r="M71" s="3"/>
       <c r="Q71" s="3"/>
     </row>
@@ -3258,6 +3346,9 @@
       <c r="E72" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F72" s="1" t="s">
+        <v>444</v>
+      </c>
       <c r="M72" s="3"/>
       <c r="Q72" s="3"/>
     </row>
@@ -3277,6 +3368,9 @@
       <c r="E73" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F73" s="1" t="s">
+        <v>439</v>
+      </c>
       <c r="M73" s="3"/>
       <c r="Q73" s="3"/>
     </row>
@@ -3296,6 +3390,9 @@
       <c r="E74" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F74" s="1" t="s">
+        <v>440</v>
+      </c>
       <c r="M74" s="3"/>
       <c r="Q74" s="3"/>
     </row>
@@ -3314,6 +3411,9 @@
       </c>
       <c r="E75" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>445</v>
       </c>
       <c r="M75" s="3"/>
       <c r="Q75" s="3"/>

--- a/data/geography_data.xlsx
+++ b/data/geography_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\anp-website\alexandpedro.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FF1FD5-4760-43D7-9A8E-53F5E5904741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9564B3-0303-4DD6-9BDE-9653AF94DB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="690" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geography_data" sheetId="1" r:id="rId1"/>
@@ -2258,9 +2258,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S211"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D155" sqref="D155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/data/geography_data.xlsx
+++ b/data/geography_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\anp-website\alexandpedro.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9564B3-0303-4DD6-9BDE-9653AF94DB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098FF69E-50B6-401F-A5B5-527B40DBF7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="690" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geography_data" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="468">
   <si>
     <t>name</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Lîroti</t>
   </si>
   <si>
-    <t>Lopulân</t>
-  </si>
-  <si>
     <t>Horibama</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
     <t>sôsu îla = sôsîla (southern island)</t>
   </si>
   <si>
-    <t>lawa pulân = lopulân (wide plain)</t>
-  </si>
-  <si>
     <t>hori bama = horibama (horizontal seashore)</t>
   </si>
   <si>
@@ -291,9 +285,6 @@
     <t>a province (LIR)</t>
   </si>
   <si>
-    <t>a province (LOP)</t>
-  </si>
-  <si>
     <t>a province (MIK)</t>
   </si>
   <si>
@@ -405,9 +396,6 @@
     <t>li^roti</t>
   </si>
   <si>
-    <t>lopula^n</t>
-  </si>
-  <si>
     <t>mikakko-</t>
   </si>
   <si>
@@ -663,9 +651,6 @@
     <t>INA</t>
   </si>
   <si>
-    <t>Alichusines</t>
-  </si>
-  <si>
     <t>Lataranate</t>
   </si>
   <si>
@@ -681,24 +666,15 @@
     <t>Nowata</t>
   </si>
   <si>
-    <t>Noaksijen</t>
-  </si>
-  <si>
     <t>Chulan</t>
   </si>
   <si>
     <t>Pangin Town</t>
   </si>
   <si>
-    <t>Mesodorî</t>
-  </si>
-  <si>
     <t>Inalo Plains</t>
   </si>
   <si>
-    <t>LOP</t>
-  </si>
-  <si>
     <t>LIN</t>
   </si>
   <si>
@@ -852,9 +828,6 @@
     <t>nowata</t>
   </si>
   <si>
-    <t>noaksijen</t>
-  </si>
-  <si>
     <t>alicusines</t>
   </si>
   <si>
@@ -864,9 +837,6 @@
     <t>laqin bi^n</t>
   </si>
   <si>
-    <t>mesodori^</t>
-  </si>
-  <si>
     <t>inalo pula^n</t>
   </si>
   <si>
@@ -1209,9 +1179,6 @@
     <t>Hi^aplan</t>
   </si>
   <si>
-    <t>Mesodori^</t>
-  </si>
-  <si>
     <t>Wi^te</t>
   </si>
   <si>
@@ -1224,9 +1191,6 @@
     <t xml:space="preserve">Ba-k City </t>
   </si>
   <si>
-    <t>Lopula^n</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tumampula^n </t>
   </si>
   <si>
@@ -1257,66 +1221,6 @@
     <t>DAM</t>
   </si>
   <si>
-    <t>Abbreviation of Agalando</t>
-  </si>
-  <si>
-    <t>Abbreviation of Asolan</t>
-  </si>
-  <si>
-    <t>Abbreviation of Damidō</t>
-  </si>
-  <si>
-    <t>Abbreviation of Damshanlan</t>
-  </si>
-  <si>
-    <t>Abbreviation of Dapangisangado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abbreviation of Ēspa Island </t>
-  </si>
-  <si>
-    <t>Abbreviation of Horibama</t>
-  </si>
-  <si>
-    <t>Abbreviation of Inabalupa</t>
-  </si>
-  <si>
-    <t>Abbreviation of Lataranlan</t>
-  </si>
-  <si>
-    <t>Abbreviation of Libodabo</t>
-  </si>
-  <si>
-    <t>Abbreviation of Lînospa</t>
-  </si>
-  <si>
-    <t>Abbreviation of Lîroti</t>
-  </si>
-  <si>
-    <t>Abbreviation of Lopulân</t>
-  </si>
-  <si>
-    <t>Abbreviation of Mikakkō</t>
-  </si>
-  <si>
-    <t>Abbreviation of Mîkelan</t>
-  </si>
-  <si>
-    <t>Abbreviation of Nōslan</t>
-  </si>
-  <si>
-    <t>Abbreviation of Pangilan</t>
-  </si>
-  <si>
-    <t>Abbreviation of Sôsîla</t>
-  </si>
-  <si>
-    <t>Abbreviation of Tumampulân</t>
-  </si>
-  <si>
-    <t>Abbreviation of Tumbi Valley</t>
-  </si>
-  <si>
     <t>from Asolan</t>
   </si>
   <si>
@@ -1369,6 +1273,168 @@
   </si>
   <si>
     <t>Land of Andy</t>
+  </si>
+  <si>
+    <t>Bursulan</t>
+  </si>
+  <si>
+    <t>bursulan</t>
+  </si>
+  <si>
+    <t>a province (BUR)</t>
+  </si>
+  <si>
+    <t>bursu (probably bear) + lando = Bursulan (bear land)</t>
+  </si>
+  <si>
+    <t>BUR</t>
+  </si>
+  <si>
+    <t>Leyo</t>
+  </si>
+  <si>
+    <t>Simaba</t>
+  </si>
+  <si>
+    <t>Chotofelilan</t>
+  </si>
+  <si>
+    <t>Silebes</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>choto (claw) + fel- (cat prefix) + lando</t>
+  </si>
+  <si>
+    <t>silebes</t>
+  </si>
+  <si>
+    <t>cotofelilan</t>
+  </si>
+  <si>
+    <t>simaba</t>
+  </si>
+  <si>
+    <t>leyo</t>
+  </si>
+  <si>
+    <t>Probably from Leo</t>
+  </si>
+  <si>
+    <t>Probably from Simba the Lion</t>
+  </si>
+  <si>
+    <t>Possible corruption of Pangil</t>
+  </si>
+  <si>
+    <t>Wonsan</t>
+  </si>
+  <si>
+    <t>Wonosobo</t>
+  </si>
+  <si>
+    <t>Workolo</t>
+  </si>
+  <si>
+    <t>far e-spa point</t>
+  </si>
+  <si>
+    <t>The Far Ēspa Point</t>
+  </si>
+  <si>
+    <t>wonsan</t>
+  </si>
+  <si>
+    <t>wonosobo</t>
+  </si>
+  <si>
+    <t>workolo</t>
+  </si>
+  <si>
+    <t>yung e-spa sa pon</t>
+  </si>
+  <si>
+    <t>a city. The most west you can go in Ēspa Island</t>
+  </si>
+  <si>
+    <t>Alichusikunes</t>
+  </si>
+  <si>
+    <t>Barakada</t>
+  </si>
+  <si>
+    <t>Barakatolobo</t>
+  </si>
+  <si>
+    <t>Ursaneta</t>
+  </si>
+  <si>
+    <t>Ursangato</t>
+  </si>
+  <si>
+    <t>Noitanrebi</t>
+  </si>
+  <si>
+    <t>barakada</t>
+  </si>
+  <si>
+    <t>barakatolobo</t>
+  </si>
+  <si>
+    <t>ursaneta</t>
+  </si>
+  <si>
+    <t>noitanrebi</t>
+  </si>
+  <si>
+    <t>ursaqato</t>
+  </si>
+  <si>
+    <t>baraka (bear)</t>
+  </si>
+  <si>
+    <t>baraka (bear) + lobo (wolf?)</t>
+  </si>
+  <si>
+    <t>ursa (bear)</t>
+  </si>
+  <si>
+    <t>hibernation</t>
+  </si>
+  <si>
+    <t>Usanbanor</t>
+  </si>
+  <si>
+    <t>urala korona</t>
+  </si>
+  <si>
+    <t>urugita</t>
+  </si>
+  <si>
+    <t>urusera</t>
+  </si>
+  <si>
+    <t>ursinolan</t>
+  </si>
+  <si>
+    <t>dasdaberpopindawudsu</t>
+  </si>
+  <si>
+    <t>a question</t>
+  </si>
+  <si>
+    <t>bear</t>
+  </si>
+  <si>
+    <t>bear + land</t>
+  </si>
+  <si>
+    <t>bear + crown</t>
+  </si>
+  <si>
+    <t>usanbanor</t>
   </si>
 </sst>
 </file>
@@ -1858,7 +1924,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1869,6 +1935,13 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1915,7 +1988,97 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2256,11 +2419,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S211"/>
+  <dimension ref="A1:S219"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D155" sqref="D155"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E153" sqref="E153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2278,7 +2441,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2287,7 +2450,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -2296,379 +2459,379 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
+    <row r="2" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="M4" s="7"/>
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="Q6" s="7"/>
+    </row>
+    <row r="7" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="Q7" s="7"/>
+    </row>
+    <row r="8" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="S8" s="7"/>
+    </row>
+    <row r="9" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="R9" s="7"/>
+    </row>
+    <row r="10" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="E10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="7"/>
+      <c r="Q10" s="7"/>
+    </row>
+    <row r="11" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="7"/>
+      <c r="R12" s="7"/>
+    </row>
+    <row r="13" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="7"/>
+      <c r="R13" s="7"/>
+    </row>
+    <row r="14" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="7"/>
+      <c r="Q14" s="7"/>
+    </row>
+    <row r="15" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="7"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="D16" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="M16" s="7"/>
+      <c r="R16" s="7"/>
+    </row>
+    <row r="17" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="7"/>
+      <c r="Q17" s="7"/>
+    </row>
+    <row r="18" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="7"/>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" s="7"/>
+      <c r="O19" s="7"/>
+    </row>
+    <row r="20" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M20" s="7"/>
+      <c r="R20" s="7"/>
+    </row>
+    <row r="21" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" s="3"/>
-      <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="3"/>
-      <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" s="3"/>
-      <c r="S7" s="3"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" s="3"/>
-      <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" s="3"/>
-      <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M11" s="3"/>
-      <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="3"/>
-      <c r="R12" s="3"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" s="3"/>
-      <c r="R13" s="3"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M14" s="3"/>
-      <c r="R14" s="3"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M15" s="3"/>
-      <c r="R15" s="3"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M16" s="3"/>
-      <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M17" s="3"/>
-      <c r="Q17" s="3"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M18" s="3"/>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M19" s="3"/>
-      <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M20" s="3"/>
-      <c r="R20" s="3"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M21" s="3"/>
-      <c r="Q21" s="3"/>
+      <c r="M21" s="7"/>
+      <c r="Q21" s="7"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M22" s="3"/>
@@ -2676,160 +2839,160 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>408</v>
+        <v>92</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="M23" s="3"/>
       <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>409</v>
+        <v>30</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="M24" s="3"/>
       <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>410</v>
+        <v>418</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>414</v>
       </c>
       <c r="M25" s="3"/>
       <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>411</v>
+        <v>395</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="M26" s="3"/>
       <c r="O26" s="3"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>412</v>
+        <v>94</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="M27" s="3"/>
       <c r="O27" s="3"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>413</v>
+        <v>95</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="M28" s="3"/>
       <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>414</v>
+        <v>203</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="M29" s="3"/>
       <c r="O29" s="3"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>415</v>
+        <v>204</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="M30" s="3"/>
       <c r="O30" s="3"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>416</v>
+        <v>205</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="M31" s="3"/>
       <c r="O31" s="3"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>417</v>
+        <v>144</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="M32" s="3"/>
       <c r="O32" s="3"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>418</v>
+        <v>214</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="M33" s="3"/>
       <c r="O33" s="3"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>419</v>
+        <v>215</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="M34" s="3"/>
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>420</v>
+        <v>96</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="M35" s="3"/>
       <c r="O35" s="3"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>421</v>
+        <v>217</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="M36" s="3"/>
       <c r="O36" s="3"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>422</v>
+        <v>216</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="M37" s="3"/>
       <c r="O37" s="3"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>423</v>
+        <v>218</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="M38" s="3"/>
       <c r="O38" s="3"/>
@@ -2838,38 +3001,38 @@
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>424</v>
+      <c r="E39" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="M39" s="3"/>
       <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>425</v>
+        <v>219</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="M40" s="3"/>
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>426</v>
+        <v>108</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="M41" s="3"/>
       <c r="O41" s="3"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>427</v>
+        <v>90</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="M42" s="3"/>
       <c r="O42" s="3"/>
@@ -2879,210 +3042,296 @@
       <c r="O43" s="3"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>419</v>
+      </c>
       <c r="C44" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>429</v>
       </c>
       <c r="M44" s="3"/>
       <c r="O44" s="3"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>420</v>
+      </c>
       <c r="C45" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>430</v>
       </c>
       <c r="M45" s="3"/>
       <c r="O45" s="3"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>421</v>
+      </c>
       <c r="C46" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>424</v>
       </c>
       <c r="M46" s="3"/>
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="C47" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>423</v>
       </c>
       <c r="M47" s="3"/>
       <c r="O47" s="3"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="C48" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="M48" s="3"/>
       <c r="O48" s="3"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C49" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="M49" s="3"/>
-      <c r="O49" s="3"/>
+      <c r="Q49" s="3"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="M50" s="3"/>
-      <c r="O50" s="3"/>
+        <v>396</v>
+      </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="M51" s="3"/>
-      <c r="Q51" s="3"/>
+      <c r="A51" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="D53" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>52</v>
+        <v>397</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>155</v>
+        <v>68</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>155</v>
+        <v>68</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>429</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="M55" s="3"/>
+      <c r="Q55" s="3"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>70</v>
+        <v>380</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>430</v>
+        <v>399</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>399</v>
+        <v>150</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M57" s="3"/>
-      <c r="Q57" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>390</v>
+        <v>153</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>431</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
@@ -3093,1277 +3342,1341 @@
         <v>154</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>432</v>
+        <v>401</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>157</v>
+        <v>69</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>157</v>
+        <v>69</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>433</v>
+        <v>403</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>434</v>
+        <v>24</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>435</v>
+        <v>404</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>29</v>
+        <v>156</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>29</v>
+        <v>156</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>436</v>
+        <v>24</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>160</v>
+        <v>443</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>160</v>
+        <v>443</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>31</v>
+        <v>418</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>234</v>
+        <v>448</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>437</v>
+        <v>453</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>196</v>
+        <v>445</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>196</v>
+        <v>445</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>97</v>
+        <v>418</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>244</v>
+        <v>450</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="M68" s="3"/>
-      <c r="Q68" s="3"/>
+        <v>455</v>
+      </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>202</v>
+        <v>446</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>202</v>
+        <v>446</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>97</v>
+        <v>418</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>253</v>
+        <v>452</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="M69" s="3"/>
-      <c r="Q69" s="3"/>
+        <v>455</v>
+      </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>191</v>
+        <v>447</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>191</v>
+        <v>447</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>97</v>
+        <v>418</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>245</v>
+        <v>451</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="M70" s="3"/>
-      <c r="Q70" s="3"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="M71" s="3"/>
-      <c r="Q71" s="3"/>
+        <v>456</v>
+      </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>444</v>
+        <v>406</v>
       </c>
       <c r="M72" s="3"/>
       <c r="Q72" s="3"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="M73" s="3"/>
       <c r="Q73" s="3"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="M74" s="3"/>
       <c r="Q74" s="3"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>445</v>
+        <v>411</v>
       </c>
       <c r="M75" s="3"/>
       <c r="Q75" s="3"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>412</v>
       </c>
       <c r="M76" s="3"/>
       <c r="Q76" s="3"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>407</v>
       </c>
       <c r="M77" s="3"/>
       <c r="Q77" s="3"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>408</v>
       </c>
       <c r="M78" s="3"/>
       <c r="Q78" s="3"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>413</v>
       </c>
       <c r="M79" s="3"/>
       <c r="Q79" s="3"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M80" s="3"/>
       <c r="Q80" s="3"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M81" s="3"/>
       <c r="Q81" s="3"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M82" s="3"/>
       <c r="Q82" s="3"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M83" s="3"/>
       <c r="Q83" s="3"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>391</v>
+        <v>188</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M84" s="3"/>
       <c r="Q84" s="3"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M85" s="3"/>
       <c r="Q85" s="3"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M86" s="3"/>
       <c r="Q86" s="3"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="M87" s="3"/>
       <c r="Q87" s="3"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>136</v>
+        <v>381</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>136</v>
+        <v>197</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M88" s="3"/>
+      <c r="Q88" s="3"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>133</v>
+        <v>253</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M89" s="3"/>
+      <c r="Q89" s="3"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M90" s="3"/>
+      <c r="Q90" s="3"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="M91" s="3"/>
+      <c r="Q91" s="3"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M119" s="3"/>
+      <c r="Q119" s="3"/>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A120" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A121" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A122" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A123" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A124" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A125" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B125" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C125" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A126" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A127" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C94" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C96" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D102" s="1" t="s">
+      <c r="B127" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A128" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D128" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="M109" s="3"/>
-      <c r="Q109" s="3"/>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A110" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A111" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A112" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="E128" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="4"/>
-      <c r="B130" s="4"/>
+      <c r="A130" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="C130" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>152</v>
+      <c r="A132" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>153</v>
+      <c r="A133" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>393</v>
+        <v>104</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>151</v>
+      <c r="A137" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -4374,1064 +4687,1195 @@
         <v>105</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C139" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D139" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B141" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="C141" s="1" t="s">
-        <v>221</v>
+        <v>144</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="C143" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="C145" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="C147" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C149" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C151" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A152" s="4"/>
-      <c r="B152" s="4"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A153" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>325</v>
-      </c>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C153" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F153" s="2"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A154" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G154" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C155" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A156" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C157" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C159" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="4"/>
+      <c r="B160" s="4"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B161" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F156" s="2"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A157" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F157" s="2"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A158" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F158" s="2"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A159" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F159" s="2"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A160" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F160" s="2"/>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F161" s="2"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>314</v>
+        <v>389</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>314</v>
+        <v>22</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>345</v>
+        <v>297</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F162" s="2"/>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>322</v>
+        <v>51</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>322</v>
+        <v>51</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>354</v>
+        <v>298</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F163" s="2"/>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>57</v>
+        <v>305</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>57</v>
+        <v>305</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F164" s="2"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F165" s="2"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>317</v>
+        <v>392</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F166" s="2"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>405</v>
+        <v>53</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>352</v>
+        <v>53</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F167" s="2"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F168" s="2"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>318</v>
+        <v>54</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>318</v>
+        <v>54</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F169" s="2"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F170" s="2"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>59</v>
+        <v>312</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>59</v>
+        <v>312</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F171" s="2"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>316</v>
+        <v>55</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>316</v>
+        <v>55</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F172" s="2"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>394</v>
+        <v>309</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>60</v>
+        <v>309</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F173" s="2"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>61</v>
+        <v>307</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>61</v>
+        <v>307</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F174" s="2"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>62</v>
+        <v>342</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F175" s="2"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>63</v>
+        <v>310</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>63</v>
+        <v>310</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F176" s="2"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>64</v>
+        <v>308</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>64</v>
+        <v>308</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F177" s="2"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F178" s="2"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F179" s="2"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>67</v>
+        <v>306</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>67</v>
+        <v>306</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F180" s="2"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>311</v>
+        <v>383</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>311</v>
+        <v>58</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F181" s="2"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>403</v>
+        <v>59</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F182" s="2"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>309</v>
+        <v>390</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>309</v>
+        <v>60</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F183" s="2"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>313</v>
+        <v>61</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>313</v>
+        <v>61</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F184" s="2"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>324</v>
+        <v>62</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>324</v>
+        <v>62</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F185" s="2"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F186" s="2"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="C187" s="1" t="s">
-        <v>227</v>
+        <v>5</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F187" s="2"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F188" s="2"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>171</v>
+        <v>301</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>171</v>
+        <v>301</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>358</v>
+        <v>331</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F189" s="2"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>172</v>
+        <v>391</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>172</v>
+        <v>66</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F190" s="2"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>173</v>
+        <v>299</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>173</v>
+        <v>299</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F191" s="2"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>386</v>
+        <v>303</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>183</v>
+        <v>303</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F192" s="2"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>174</v>
+        <v>314</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>174</v>
+        <v>314</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F193" s="2"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A194" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="F194" s="2"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A195" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="C195" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A196" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="F195" s="2"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F197" s="2"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F198" s="2"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A199" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>180</v>
+      <c r="A199" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>181</v>
+        <v>376</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A203" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B203" s="4" t="s">
-        <v>162</v>
+      <c r="A203" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A204" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B204" s="4" t="s">
-        <v>164</v>
+      <c r="A204" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A205" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B205" s="4" t="s">
-        <v>165</v>
+      <c r="A205" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F205" s="2"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A206" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B206" s="4" t="s">
-        <v>166</v>
+      <c r="A206" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F206" s="2"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A208" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B208" s="4" t="s">
-        <v>167</v>
+      <c r="A208" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A209" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B209" s="4" t="s">
-        <v>168</v>
+      <c r="A209" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A210" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B210" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>406</v>
+        <v>158</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A52:S66">
-    <sortCondition ref="A52:A66"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S21">
+    <sortCondition ref="A2:A21"/>
   </sortState>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  <conditionalFormatting sqref="B110:B1048576 B1:B65 B71:B96">
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E42">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/data/geography_data.xlsx
+++ b/data/geography_data.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\anp-website\alexandpedro.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098FF69E-50B6-401F-A5B5-527B40DBF7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A6564B-8C55-4903-96C2-86644A098E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geography_data" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_Hlk70300504" localSheetId="0">geography_data!$F$27</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="648">
   <si>
     <t>name</t>
   </si>
@@ -54,12 +57,6 @@
     <t>Nōslan</t>
   </si>
   <si>
-    <t>Lînospa</t>
-  </si>
-  <si>
-    <t>Lîroti</t>
-  </si>
-  <si>
     <t>Horibama</t>
   </si>
   <si>
@@ -78,42 +75,21 @@
     <t>Mikakkō</t>
   </si>
   <si>
-    <t>Mîkelan</t>
-  </si>
-  <si>
     <t>Damshanlan</t>
   </si>
   <si>
-    <t>Sôsîla</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ēspa Island </t>
   </si>
   <si>
     <t>Dapangisangado</t>
   </si>
   <si>
-    <t xml:space="preserve">Tumampulân </t>
-  </si>
-  <si>
     <t>Agalando</t>
   </si>
   <si>
-    <t>Hulkân</t>
-  </si>
-  <si>
-    <t>Kânînlan</t>
-  </si>
-  <si>
-    <t>a city</t>
-  </si>
-  <si>
     <t>nōsu + lando = nōslan (northern land)</t>
   </si>
   <si>
-    <t>layo nōsu lupa = lînospa (far north area)</t>
-  </si>
-  <si>
     <t>Pangil lando = pangilan (Pangil land)</t>
   </si>
   <si>
@@ -126,12 +102,6 @@
     <t>ASO</t>
   </si>
   <si>
-    <t>layo furoti = lîroti (far frontier)</t>
-  </si>
-  <si>
-    <t>sôsu îla = sôsîla (southern island)</t>
-  </si>
-  <si>
     <t>hori bama = horibama (horizontal seashore)</t>
   </si>
   <si>
@@ -153,9 +123,6 @@
     <t>mikakukukō = mikakkō (delta of a river)</t>
   </si>
   <si>
-    <t>(mîkel) Michael land = mîkelan (Michael land)</t>
-  </si>
-  <si>
     <t>dami shan lando = damshanlan (a lot of mountain land)</t>
   </si>
   <si>
@@ -165,21 +132,12 @@
     <t>dapangi + sangado = dapangisangado (wolf territory)</t>
   </si>
   <si>
-    <t>tumang + pulân = tumampulân (fox plain)</t>
-  </si>
-  <si>
     <t>agala + lando = agalando (eagle land)</t>
   </si>
   <si>
-    <t>hulkînman + pulân = hulkân</t>
-  </si>
-  <si>
     <t>(predator plains)</t>
   </si>
   <si>
-    <t>kânîn + lando = kânînlan (“canine” land)</t>
-  </si>
-  <si>
     <t>Wanwan City (Wanwan is an onomatopoeia)</t>
   </si>
   <si>
@@ -195,60 +153,27 @@
     <t>Pangan</t>
   </si>
   <si>
-    <t xml:space="preserve">Pangila </t>
-  </si>
-  <si>
     <t xml:space="preserve">Pangilan City </t>
   </si>
   <si>
-    <t>Sarafanga</t>
-  </si>
-  <si>
-    <t>Wanar</t>
-  </si>
-  <si>
-    <t>Warîla</t>
-  </si>
-  <si>
     <t>Warlan</t>
   </si>
   <si>
-    <t>Warpulân</t>
-  </si>
-  <si>
     <t>Warshan</t>
   </si>
   <si>
     <t>Wenrir</t>
   </si>
   <si>
-    <t>Wikan</t>
-  </si>
-  <si>
-    <t>Wikila</t>
-  </si>
-  <si>
-    <t>Wilan</t>
-  </si>
-  <si>
-    <t>Wilpulân</t>
-  </si>
-  <si>
     <t>Wolan</t>
   </si>
   <si>
     <t>Inulan</t>
   </si>
   <si>
-    <t>Pawesome Town</t>
-  </si>
-  <si>
     <t>Hacikō</t>
   </si>
   <si>
-    <t>Lîka</t>
-  </si>
-  <si>
     <t>a province (NOS)</t>
   </si>
   <si>
@@ -387,33 +312,15 @@
     <t>dapaqisaqado</t>
   </si>
   <si>
-    <t>e-spa i^la</t>
-  </si>
-  <si>
-    <t>li^nospa</t>
-  </si>
-  <si>
-    <t>li^roti</t>
-  </si>
-  <si>
     <t>mikakko-</t>
   </si>
   <si>
-    <t>mi^kelan</t>
-  </si>
-  <si>
     <t>no-slan</t>
   </si>
   <si>
     <t>paqilan</t>
   </si>
   <si>
-    <t>so^si^la</t>
-  </si>
-  <si>
-    <t>tumampula^n</t>
-  </si>
-  <si>
     <t>tumbi vali</t>
   </si>
   <si>
@@ -462,18 +369,12 @@
     <t>Hige</t>
   </si>
   <si>
-    <t>Wilpâ</t>
-  </si>
-  <si>
     <t>LAT</t>
   </si>
   <si>
     <t>Wan</t>
   </si>
   <si>
-    <t>Wîte</t>
-  </si>
-  <si>
     <t>Wile</t>
   </si>
   <si>
@@ -531,9 +432,6 @@
     <t>Tumanggonglan</t>
   </si>
   <si>
-    <t>Wazafaksâ</t>
-  </si>
-  <si>
     <t>Talonshan</t>
   </si>
   <si>
@@ -624,9 +522,6 @@
     <t>Eris</t>
   </si>
   <si>
-    <t>Hîaplan</t>
-  </si>
-  <si>
     <t>Agalashan</t>
   </si>
   <si>
@@ -702,9 +597,6 @@
     <t>ba-k mit</t>
   </si>
   <si>
-    <t>ka^ni^nlan</t>
-  </si>
-  <si>
     <t>inulan</t>
   </si>
   <si>
@@ -717,15 +609,9 @@
     <t>wilforlan</t>
   </si>
   <si>
-    <t>po-sam bi^n</t>
-  </si>
-  <si>
     <t>haciko-</t>
   </si>
   <si>
-    <t>li^ka</t>
-  </si>
-  <si>
     <t>asolan mit</t>
   </si>
   <si>
@@ -789,9 +675,6 @@
     <t>ertas</t>
   </si>
   <si>
-    <t>hi^aplan</t>
-  </si>
-  <si>
     <t>i-gelan</t>
   </si>
   <si>
@@ -834,12 +717,6 @@
     <t>culan</t>
   </si>
   <si>
-    <t>laqin bi^n</t>
-  </si>
-  <si>
-    <t>inalo pula^n</t>
-  </si>
-  <si>
     <t>wilbuc</t>
   </si>
   <si>
@@ -876,9 +753,6 @@
     <t>labo</t>
   </si>
   <si>
-    <t>wilpa^</t>
-  </si>
-  <si>
     <t>wonal</t>
   </si>
   <si>
@@ -900,18 +774,12 @@
     <t>hige</t>
   </si>
   <si>
-    <t>sarafaqa</t>
-  </si>
-  <si>
     <t>wan</t>
   </si>
   <si>
     <t>wiska</t>
   </si>
   <si>
-    <t>wi^te</t>
-  </si>
-  <si>
     <t>wolten</t>
   </si>
   <si>
@@ -924,9 +792,6 @@
     <t>lanayote</t>
   </si>
   <si>
-    <t>hulka^n</t>
-  </si>
-  <si>
     <t>lobosaqado</t>
   </si>
   <si>
@@ -936,9 +801,6 @@
     <t>Wana</t>
   </si>
   <si>
-    <t>Wilfor</t>
-  </si>
-  <si>
     <t>Pangil</t>
   </si>
   <si>
@@ -954,9 +816,6 @@
     <t>Wanter</t>
   </si>
   <si>
-    <t>Pangilkuro</t>
-  </si>
-  <si>
     <t>Pangten</t>
   </si>
   <si>
@@ -966,69 +825,33 @@
     <t>Pangishan</t>
   </si>
   <si>
-    <t>Pampulân</t>
-  </si>
-  <si>
     <t>Pangilambarang</t>
   </si>
   <si>
-    <t>Pamile</t>
-  </si>
-  <si>
-    <t>Wolpang</t>
-  </si>
-  <si>
     <t>Dapanginalando</t>
   </si>
   <si>
     <t>paqan</t>
   </si>
   <si>
-    <t>paqila</t>
-  </si>
-  <si>
     <t>paqilan mit</t>
   </si>
   <si>
-    <t>wanar</t>
-  </si>
-  <si>
-    <t>wari^la</t>
-  </si>
-  <si>
     <t>warlan</t>
   </si>
   <si>
-    <t>warpula^n</t>
-  </si>
-  <si>
     <t>warxan</t>
   </si>
   <si>
     <t>wenrir</t>
   </si>
   <si>
-    <t>wikan</t>
-  </si>
-  <si>
-    <t>wikila</t>
-  </si>
-  <si>
-    <t>wilan</t>
-  </si>
-  <si>
-    <t>wipula^n</t>
-  </si>
-  <si>
     <t>wilwak</t>
   </si>
   <si>
     <t>wana</t>
   </si>
   <si>
-    <t>wilfor</t>
-  </si>
-  <si>
     <t>wolot</t>
   </si>
   <si>
@@ -1056,24 +879,9 @@
     <t>paqixan</t>
   </si>
   <si>
-    <t>pampula^n</t>
-  </si>
-  <si>
-    <t>Pangilpulân</t>
-  </si>
-  <si>
-    <t>paqilpula^n</t>
-  </si>
-  <si>
     <t>paqilambaraq</t>
   </si>
   <si>
-    <t>pamile</t>
-  </si>
-  <si>
-    <t>wolpaq</t>
-  </si>
-  <si>
     <t>dapaqinalando</t>
   </si>
   <si>
@@ -1140,9 +948,6 @@
     <t>tumaqgoqlan</t>
   </si>
   <si>
-    <t>wazafaksa^</t>
-  </si>
-  <si>
     <t>entered word</t>
   </si>
   <si>
@@ -1155,69 +960,12 @@
     <t>No-slan</t>
   </si>
   <si>
-    <t>Haciko-</t>
-  </si>
-  <si>
     <t xml:space="preserve">e-spa Island </t>
   </si>
   <si>
     <t>He-rlan</t>
   </si>
   <si>
-    <t>Li^nospa</t>
-  </si>
-  <si>
-    <t>Li^roti</t>
-  </si>
-  <si>
-    <t>Mi^kelan</t>
-  </si>
-  <si>
-    <t>Li^ka</t>
-  </si>
-  <si>
-    <t>Hi^aplan</t>
-  </si>
-  <si>
-    <t>Wi^te</t>
-  </si>
-  <si>
-    <t>Wari^la</t>
-  </si>
-  <si>
-    <t>So^si^la</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ba-k City </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tumampula^n </t>
-  </si>
-  <si>
-    <t>Ka^ni^nlan</t>
-  </si>
-  <si>
-    <t>Wilpa^</t>
-  </si>
-  <si>
-    <t>Hulka^n</t>
-  </si>
-  <si>
-    <t>Warpula^n</t>
-  </si>
-  <si>
-    <t>Wilpula^n</t>
-  </si>
-  <si>
-    <t>Pampula^n</t>
-  </si>
-  <si>
-    <t>Pangilpula^n</t>
-  </si>
-  <si>
-    <t>Wazafaksa^</t>
-  </si>
-  <si>
     <t>DAM</t>
   </si>
   <si>
@@ -1239,9 +987,6 @@
     <t>wolf prefix Pan- + raccoon affix raki</t>
   </si>
   <si>
-    <t>Pawesome the superdog</t>
-  </si>
-  <si>
     <t>Possibly from Pangilan</t>
   </si>
   <si>
@@ -1359,9 +1104,6 @@
     <t>a city. The most west you can go in Ēspa Island</t>
   </si>
   <si>
-    <t>Alichusikunes</t>
-  </si>
-  <si>
     <t>Barakada</t>
   </si>
   <si>
@@ -1435,6 +1177,807 @@
   </si>
   <si>
     <t>usanbanor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tumampulein </t>
+  </si>
+  <si>
+    <t>tumampulein</t>
+  </si>
+  <si>
+    <t>inalo pulein</t>
+  </si>
+  <si>
+    <t>Wilpei</t>
+  </si>
+  <si>
+    <t>wilpei</t>
+  </si>
+  <si>
+    <t>Hulkein</t>
+  </si>
+  <si>
+    <t>hulkein</t>
+  </si>
+  <si>
+    <t>Pampulein</t>
+  </si>
+  <si>
+    <t>pampulein</t>
+  </si>
+  <si>
+    <t>Pangilpulein</t>
+  </si>
+  <si>
+    <t>paqilpulein</t>
+  </si>
+  <si>
+    <t>Warpulein</t>
+  </si>
+  <si>
+    <t>warpulein</t>
+  </si>
+  <si>
+    <t>Wilpulein</t>
+  </si>
+  <si>
+    <t>wipulein</t>
+  </si>
+  <si>
+    <t>Wazafaksei</t>
+  </si>
+  <si>
+    <t>wazafaksei</t>
+  </si>
+  <si>
+    <t>e-spa aila</t>
+  </si>
+  <si>
+    <t>Lainospa</t>
+  </si>
+  <si>
+    <t>lainospa</t>
+  </si>
+  <si>
+    <t>Lairoti</t>
+  </si>
+  <si>
+    <t>lairoti</t>
+  </si>
+  <si>
+    <t>Maikelan</t>
+  </si>
+  <si>
+    <t>maikelan</t>
+  </si>
+  <si>
+    <t>Keinainlan</t>
+  </si>
+  <si>
+    <t>keinainlan</t>
+  </si>
+  <si>
+    <t>Laika</t>
+  </si>
+  <si>
+    <t>laika</t>
+  </si>
+  <si>
+    <t>laqin bain</t>
+  </si>
+  <si>
+    <t>Waite</t>
+  </si>
+  <si>
+    <t>waite</t>
+  </si>
+  <si>
+    <t>Waraila</t>
+  </si>
+  <si>
+    <t>waraila</t>
+  </si>
+  <si>
+    <t>Sousaila</t>
+  </si>
+  <si>
+    <t>sousaila</t>
+  </si>
+  <si>
+    <t>tumang + pulein = tumampulein (fox plain)</t>
+  </si>
+  <si>
+    <t>layo nōsu lupa = lainospa (far north area)</t>
+  </si>
+  <si>
+    <t>layo furoti = lairoti (far frontier)</t>
+  </si>
+  <si>
+    <t>(maikel) Michael land = maikelan (Michael land)</t>
+  </si>
+  <si>
+    <t>sousu aila = sousaila (southern island)</t>
+  </si>
+  <si>
+    <t>keinain + lando = keinainlan (“canine” land)</t>
+  </si>
+  <si>
+    <t>hulkainman + pulein = hulkein</t>
+  </si>
+  <si>
+    <t>I-gelan</t>
+  </si>
+  <si>
+    <t>Mahi-gan</t>
+  </si>
+  <si>
+    <t>Alichusines</t>
+  </si>
+  <si>
+    <t>Ba-k City</t>
+  </si>
+  <si>
+    <t>Territory owner Warris</t>
+  </si>
+  <si>
+    <t>territory</t>
+  </si>
+  <si>
+    <t>Territory owner Mahīgan from Algonquin for Wolf</t>
+  </si>
+  <si>
+    <t>Territory owner Waya</t>
+  </si>
+  <si>
+    <t>Territory owner Wilharme</t>
+  </si>
+  <si>
+    <t>Territory owner Ogami possible Japanese for Wolf</t>
+  </si>
+  <si>
+    <t>Territory Owner Hige</t>
+  </si>
+  <si>
+    <t>Territory Owner Labo</t>
+  </si>
+  <si>
+    <t>Territory Owner Nukte</t>
+  </si>
+  <si>
+    <t>Territory Owner Wandara</t>
+  </si>
+  <si>
+    <t>Territory Owner Wangi</t>
+  </si>
+  <si>
+    <t>Territory Owner Wanzar</t>
+  </si>
+  <si>
+    <t>Territory Owner Wence</t>
+  </si>
+  <si>
+    <t>Territory Owner Wilbit</t>
+  </si>
+  <si>
+    <t>Territory Owner Wilbuch</t>
+  </si>
+  <si>
+    <t>Territory Owner Wilburus</t>
+  </si>
+  <si>
+    <t>Territory Owner Wilkil</t>
+  </si>
+  <si>
+    <t>Territory Owner Wilpei</t>
+  </si>
+  <si>
+    <t>Territory Owner Wir</t>
+  </si>
+  <si>
+    <t>Territory Owner Wolan</t>
+  </si>
+  <si>
+    <t>Territory Owner Wolkus</t>
+  </si>
+  <si>
+    <t>Territory Owner Wonal</t>
+  </si>
+  <si>
+    <t>Territory Owner Wopine</t>
+  </si>
+  <si>
+    <t>Territory Owner Worath</t>
+  </si>
+  <si>
+    <t>Territory Owner Wudkil</t>
+  </si>
+  <si>
+    <t>Territory Owner Wur</t>
+  </si>
+  <si>
+    <t>A lot of animals land</t>
+  </si>
+  <si>
+    <t>baraka lando = barakalan (bear land)</t>
+  </si>
+  <si>
+    <t>BAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agala + lando = agalando (eagle land)	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dami shan lando = damshanlan (a lot of mountain land)	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ēsu + pa = ēspa island (west part island)	</t>
+  </si>
+  <si>
+    <t>latrans lando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">libo daho = libodabo (thousand leaves)	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mikakukukō = mikakkō (delta of a river)	</t>
+  </si>
+  <si>
+    <t>tumang + pulein = tumampulein</t>
+  </si>
+  <si>
+    <t>official abbreviation of Agalando</t>
+  </si>
+  <si>
+    <t>official abbreviation of Asolan</t>
+  </si>
+  <si>
+    <t>official abbreviation of Barakalando</t>
+  </si>
+  <si>
+    <t>official abbreviation of Damidō</t>
+  </si>
+  <si>
+    <t>official abbreviation of Damshanlan</t>
+  </si>
+  <si>
+    <t>official abbreviation of Dapangisangado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">official abbreviation of Ēspa Island </t>
+  </si>
+  <si>
+    <t>official abbreviation of Horibama</t>
+  </si>
+  <si>
+    <t>official abbreviation of Inabalupa</t>
+  </si>
+  <si>
+    <t>official abbreviation of Lataranlan</t>
+  </si>
+  <si>
+    <t>official abbreviation of Lainospa</t>
+  </si>
+  <si>
+    <t>official abbreviation of Lairoti</t>
+  </si>
+  <si>
+    <t>official abbreviation of Libodabo</t>
+  </si>
+  <si>
+    <t>official abbreviation of Maikelan</t>
+  </si>
+  <si>
+    <t>official abbreviation of Mikakkō</t>
+  </si>
+  <si>
+    <t>official abbreviation of Nōslan</t>
+  </si>
+  <si>
+    <t>official abbreviation of Pangilan</t>
+  </si>
+  <si>
+    <t>official abbreviation of Sousaila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">official abbreviation of Tumampulein </t>
+  </si>
+  <si>
+    <t>official abbreviation of Tumbi Valley</t>
+  </si>
+  <si>
+    <t>A.G.A.</t>
+  </si>
+  <si>
+    <t>A.S.O.</t>
+  </si>
+  <si>
+    <t>B.A.R.</t>
+  </si>
+  <si>
+    <t>D.A.M.</t>
+  </si>
+  <si>
+    <t>D.A.S.</t>
+  </si>
+  <si>
+    <t>D.A.P.</t>
+  </si>
+  <si>
+    <t>E.S.P.</t>
+  </si>
+  <si>
+    <t>H.O.R.</t>
+  </si>
+  <si>
+    <t>I.N.A.</t>
+  </si>
+  <si>
+    <t>L.A.T.</t>
+  </si>
+  <si>
+    <t>L.I.N.</t>
+  </si>
+  <si>
+    <t>L.I.R.</t>
+  </si>
+  <si>
+    <t>L.I.B.</t>
+  </si>
+  <si>
+    <t>M.I.L.</t>
+  </si>
+  <si>
+    <t>M.I.K.</t>
+  </si>
+  <si>
+    <t>N.O.S.</t>
+  </si>
+  <si>
+    <t>P.A.N.</t>
+  </si>
+  <si>
+    <t>S.O.S.</t>
+  </si>
+  <si>
+    <t>T.U.M.</t>
+  </si>
+  <si>
+    <t>T.U.B.</t>
+  </si>
+  <si>
+    <t>Argan the Eagle</t>
+  </si>
+  <si>
+    <t>Artelan the Eagle</t>
+  </si>
+  <si>
+    <t>Eris the Eagle</t>
+  </si>
+  <si>
+    <t>Ertanis the Eagle</t>
+  </si>
+  <si>
+    <t>Ertas the Eagle</t>
+  </si>
+  <si>
+    <t>I-gelan the Eagle</t>
+  </si>
+  <si>
+    <t>Kanote the Coyote</t>
+  </si>
+  <si>
+    <t>Eli the Eagle</t>
+  </si>
+  <si>
+    <t>High Up Land</t>
+  </si>
+  <si>
+    <t>Hayaplan</t>
+  </si>
+  <si>
+    <t>hayaplan</t>
+  </si>
+  <si>
+    <t>Chayane the Coyote</t>
+  </si>
+  <si>
+    <t>Eris the Eagle but with Coyote affix</t>
+  </si>
+  <si>
+    <t>Famous wolf Wonsan</t>
+  </si>
+  <si>
+    <t>Famous wolf Wonosobo</t>
+  </si>
+  <si>
+    <t>Famous wolf Workolo</t>
+  </si>
+  <si>
+    <t>Literally the far west point</t>
+  </si>
+  <si>
+    <t>middle of the land</t>
+  </si>
+  <si>
+    <t>altitude sickness</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>Coyote with same name</t>
+  </si>
+  <si>
+    <t>No water</t>
+  </si>
+  <si>
+    <t>corruption of word Pangil</t>
+  </si>
+  <si>
+    <t>Territory Owner Lakatan</t>
+  </si>
+  <si>
+    <t>Territory Owner Lanayote</t>
+  </si>
+  <si>
+    <t>Territory Owner Wan</t>
+  </si>
+  <si>
+    <t>Territory Owner Waite</t>
+  </si>
+  <si>
+    <t>Territory Owner Wile</t>
+  </si>
+  <si>
+    <t>Territory Owner Wiska</t>
+  </si>
+  <si>
+    <t>Territory Owner Wolten</t>
+  </si>
+  <si>
+    <t>Wilsulei</t>
+  </si>
+  <si>
+    <t>wilsulei</t>
+  </si>
+  <si>
+    <t>Pangikuro</t>
+  </si>
+  <si>
+    <t>Pangil black</t>
+  </si>
+  <si>
+    <t>Pangil plain</t>
+  </si>
+  <si>
+    <t>Pangilan village</t>
+  </si>
+  <si>
+    <t>Pangil desert</t>
+  </si>
+  <si>
+    <t>Pangil Moutain</t>
+  </si>
+  <si>
+    <t>Pangil + Wolten</t>
+  </si>
+  <si>
+    <t>Wolf prefix War + island</t>
+  </si>
+  <si>
+    <t>War + lando</t>
+  </si>
+  <si>
+    <t>War + pulein</t>
+  </si>
+  <si>
+    <t>War + shan</t>
+  </si>
+  <si>
+    <t>Wil + pulein</t>
+  </si>
+  <si>
+    <t>Territory owner Wilsulei</t>
+  </si>
+  <si>
+    <t>Territory owner Wolot</t>
+  </si>
+  <si>
+    <t>Territory owner Wilwak</t>
+  </si>
+  <si>
+    <t>Famous Wolf Wenrir</t>
+  </si>
+  <si>
+    <t>Territory owner Wana</t>
+  </si>
+  <si>
+    <t>Territory owner Wanter</t>
+  </si>
+  <si>
+    <t>Pangil forest</t>
+  </si>
+  <si>
+    <t>Pangil + pulein</t>
+  </si>
+  <si>
+    <t>Possible from old wolf name</t>
+  </si>
+  <si>
+    <t>Akowaimailobo</t>
+  </si>
+  <si>
+    <t>akowaimailobo</t>
+  </si>
+  <si>
+    <t>town</t>
+  </si>
+  <si>
+    <t>I have a wolf</t>
+  </si>
+  <si>
+    <t>Pamilo</t>
+  </si>
+  <si>
+    <t>Pang + wilo</t>
+  </si>
+  <si>
+    <t>pamilo</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>Pangil + do + lando</t>
+  </si>
+  <si>
+    <t>Pangirosko</t>
+  </si>
+  <si>
+    <t>paqirosko</t>
+  </si>
+  <si>
+    <t>Wolf Pangil + Raccoon Rosko</t>
+  </si>
+  <si>
+    <t>Rokilan</t>
+  </si>
+  <si>
+    <t>Roki (rocky the raccoon)</t>
+  </si>
+  <si>
+    <t>Rondolan</t>
+  </si>
+  <si>
+    <t>Raccoon Rondo</t>
+  </si>
+  <si>
+    <t>Roskolan</t>
+  </si>
+  <si>
+    <t>Raccoon Rosko</t>
+  </si>
+  <si>
+    <t>Relinkanlan</t>
+  </si>
+  <si>
+    <t>Relinkan the raccoon</t>
+  </si>
+  <si>
+    <t>Relinkan the raccoon (delinquent)</t>
+  </si>
+  <si>
+    <t>Ravoran</t>
+  </si>
+  <si>
+    <t>Relingkan</t>
+  </si>
+  <si>
+    <t>Ravaris</t>
+  </si>
+  <si>
+    <t>Raku-nchulan</t>
+  </si>
+  <si>
+    <t>Raketo</t>
+  </si>
+  <si>
+    <t>Roketon</t>
+  </si>
+  <si>
+    <t>Rondo</t>
+  </si>
+  <si>
+    <t>Roki-</t>
+  </si>
+  <si>
+    <t>Ringteil</t>
+  </si>
+  <si>
+    <t>Ringteil (Ringtail) Raccoon</t>
+  </si>
+  <si>
+    <t>Roki- (Rocky) Raccoon</t>
+  </si>
+  <si>
+    <t>Rondo the raccoon</t>
+  </si>
+  <si>
+    <t>Roketo the raccoon (Rocketon)</t>
+  </si>
+  <si>
+    <t>Raket the raccoon (Rocket)</t>
+  </si>
+  <si>
+    <t>Raccoon + chu + lando</t>
+  </si>
+  <si>
+    <t>Ravaris the raccoon</t>
+  </si>
+  <si>
+    <t>Rovor the raccoon (Ravorice)</t>
+  </si>
+  <si>
+    <t>Rakūnchulan</t>
+  </si>
+  <si>
+    <t>Rokī</t>
+  </si>
+  <si>
+    <t>rokilan</t>
+  </si>
+  <si>
+    <t>rondolan</t>
+  </si>
+  <si>
+    <t>roskolan</t>
+  </si>
+  <si>
+    <t>relinkanlan</t>
+  </si>
+  <si>
+    <t>ravoran</t>
+  </si>
+  <si>
+    <t>ravaris</t>
+  </si>
+  <si>
+    <t>raketo</t>
+  </si>
+  <si>
+    <t>roketon</t>
+  </si>
+  <si>
+    <t>rondo</t>
+  </si>
+  <si>
+    <t>roki-</t>
+  </si>
+  <si>
+    <t>reliqkan</t>
+  </si>
+  <si>
+    <t>raku-nculan</t>
+  </si>
+  <si>
+    <t>riqteil</t>
+  </si>
+  <si>
+    <t>Berto Shanmasa</t>
+  </si>
+  <si>
+    <t>Ertashan</t>
+  </si>
+  <si>
+    <t>Martalan</t>
+  </si>
+  <si>
+    <t>Ertaguba</t>
+  </si>
+  <si>
+    <t>Dilberlan</t>
+  </si>
+  <si>
+    <t>Alberlan</t>
+  </si>
+  <si>
+    <t>Folberto</t>
+  </si>
+  <si>
+    <t>Bertalan</t>
+  </si>
+  <si>
+    <t>Martachulan</t>
+  </si>
+  <si>
+    <t>Tertelan</t>
+  </si>
+  <si>
+    <t>Echelonan</t>
+  </si>
+  <si>
+    <t>Erton Great Alpha</t>
+  </si>
+  <si>
+    <t>Erton Great Delta</t>
+  </si>
+  <si>
+    <t>Guri-ta-talan</t>
+  </si>
+  <si>
+    <t>Vilbertol</t>
+  </si>
+  <si>
+    <t>Gurītātalan</t>
+  </si>
+  <si>
+    <t>martaculan</t>
+  </si>
+  <si>
+    <t>tertelan</t>
+  </si>
+  <si>
+    <t>ecelonan</t>
+  </si>
+  <si>
+    <t>erton malakaq alfa</t>
+  </si>
+  <si>
+    <t>erton malakaq mikakkuno</t>
+  </si>
+  <si>
+    <t>guri-ta-talan</t>
+  </si>
+  <si>
+    <t>vilbertol</t>
+  </si>
+  <si>
+    <t>berto xanmasa</t>
+  </si>
+  <si>
+    <t>ertaxan</t>
+  </si>
+  <si>
+    <t>martalan</t>
+  </si>
+  <si>
+    <t>ertaguba</t>
+  </si>
+  <si>
+    <t>dilberlan</t>
+  </si>
+  <si>
+    <t>alberlan</t>
+  </si>
+  <si>
+    <t>folberto</t>
+  </si>
+  <si>
+    <t>bertalan</t>
+  </si>
+  <si>
+    <t>mountain town</t>
+  </si>
+  <si>
+    <t>Ewalgo</t>
+  </si>
+  <si>
+    <t>Layofeston</t>
+  </si>
+  <si>
+    <t>Far + ___</t>
+  </si>
+  <si>
+    <t>Ewalgo the eagle</t>
+  </si>
+  <si>
+    <t>ewalgo</t>
+  </si>
+  <si>
+    <t>layofeston</t>
+  </si>
+  <si>
+    <t>Hachiko-</t>
   </si>
 </sst>
 </file>
@@ -1988,7 +2531,27 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2419,11 +2982,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S219"/>
+  <dimension ref="A1:S243"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E153" sqref="E153"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2431,8 +2994,8 @@
     <col min="1" max="2" width="15.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="17" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="53.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31" style="1" customWidth="1"/>
     <col min="7" max="12" width="9.140625" style="1"/>
     <col min="13" max="13" width="44.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="36.42578125" style="1" customWidth="1"/>
@@ -2441,7 +3004,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>370</v>
+        <v>304</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2450,7 +3013,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -2461,298 +3024,298 @@
     </row>
     <row r="2" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>414</v>
+        <v>328</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>414</v>
+        <v>328</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>415</v>
+        <v>329</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>416</v>
+        <v>330</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>417</v>
+        <v>331</v>
       </c>
       <c r="M4" s="7"/>
       <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>371</v>
+        <v>305</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="M6" s="7"/>
       <c r="Q6" s="7"/>
     </row>
     <row r="7" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="M7" s="7"/>
       <c r="Q7" s="7"/>
     </row>
     <row r="8" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>375</v>
+        <v>308</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>118</v>
+        <v>398</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="M8" s="7"/>
       <c r="S8" s="7"/>
     </row>
     <row r="9" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="M9" s="7"/>
       <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="M10" s="7"/>
       <c r="Q10" s="7"/>
     </row>
     <row r="11" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
     </row>
     <row r="12" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>7</v>
+        <v>399</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>119</v>
+        <v>400</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>26</v>
+        <v>417</v>
       </c>
       <c r="M12" s="7"/>
       <c r="R12" s="7"/>
     </row>
     <row r="13" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>8</v>
+        <v>401</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>120</v>
+        <v>402</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>31</v>
+        <v>418</v>
       </c>
       <c r="M13" s="7"/>
       <c r="R13" s="7"/>
     </row>
     <row r="14" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="M14" s="7"/>
       <c r="Q14" s="7"/>
     </row>
     <row r="15" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>403</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>122</v>
+        <v>404</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>40</v>
+        <v>419</v>
       </c>
       <c r="M15" s="7"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>372</v>
+        <v>306</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="M16" s="7"/>
       <c r="R16" s="7"/>
     </row>
     <row r="17" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>373</v>
+        <v>307</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M17" s="7"/>
       <c r="Q17" s="7"/>
@@ -2765,70 +3328,70 @@
         <v>3</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="M18" s="7"/>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>384</v>
+        <v>414</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>17</v>
+        <v>414</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>125</v>
+        <v>415</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>32</v>
+        <v>420</v>
       </c>
       <c r="M19" s="7"/>
       <c r="O19" s="7"/>
     </row>
     <row r="20" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>381</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>126</v>
+        <v>382</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>44</v>
+        <v>416</v>
       </c>
       <c r="M20" s="7"/>
       <c r="R20" s="7"/>
     </row>
     <row r="21" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="M21" s="7"/>
       <c r="Q21" s="7"/>
@@ -2839,160 +3402,304 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>92</v>
+        <v>66</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>483</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>21</v>
+        <v>463</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>456</v>
       </c>
       <c r="M23" s="3"/>
       <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>484</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>13</v>
+        <v>464</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="M24" s="3"/>
       <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>418</v>
+        <v>455</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>485</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>414</v>
+        <v>465</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>454</v>
       </c>
       <c r="M25" s="3"/>
       <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>395</v>
+        <v>310</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>486</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>12</v>
+        <v>466</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>453</v>
       </c>
       <c r="M26" s="3"/>
       <c r="O26" s="3"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>94</v>
+        <v>68</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>487</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>16</v>
+        <v>467</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>457</v>
       </c>
       <c r="M27" s="3"/>
       <c r="O27" s="3"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>488</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>19</v>
+        <v>468</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="M28" s="3"/>
       <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>203</v>
+        <v>167</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>489</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>18</v>
+        <v>469</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>458</v>
       </c>
       <c r="M29" s="3"/>
       <c r="O29" s="3"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>204</v>
+        <v>168</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>490</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>9</v>
+        <v>470</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="M30" s="3"/>
       <c r="O30" s="3"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>205</v>
+        <v>169</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>491</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>11</v>
+        <v>471</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="M31" s="3"/>
       <c r="O31" s="3"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>144</v>
+        <v>111</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>492</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>181</v>
+        <v>472</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>459</v>
       </c>
       <c r="M32" s="3"/>
       <c r="O32" s="3"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>214</v>
+        <v>178</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>493</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>7</v>
+        <v>473</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>417</v>
       </c>
       <c r="M33" s="3"/>
       <c r="O33" s="3"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>215</v>
+        <v>179</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>494</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>8</v>
+        <v>474</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>418</v>
       </c>
       <c r="M34" s="3"/>
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>96</v>
+        <v>70</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>10</v>
+        <v>475</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>460</v>
       </c>
       <c r="M35" s="3"/>
       <c r="O35" s="3"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>217</v>
+        <v>181</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>496</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>15</v>
+        <v>476</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>419</v>
       </c>
       <c r="M36" s="3"/>
       <c r="O36" s="3"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>216</v>
+        <v>180</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>497</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>14</v>
+        <v>477</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="M37" s="3"/>
       <c r="O37" s="3"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>218</v>
+        <v>182</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>498</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>6</v>
+        <v>478</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="M38" s="3"/>
       <c r="O38" s="3"/>
@@ -3001,38 +3708,74 @@
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>499</v>
+      </c>
       <c r="E39" s="5" t="s">
-        <v>3</v>
+        <v>479</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="M39" s="3"/>
       <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>219</v>
+        <v>183</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>500</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>17</v>
+        <v>480</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>420</v>
       </c>
       <c r="M40" s="3"/>
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>108</v>
+        <v>82</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>501</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>20</v>
+        <v>481</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>462</v>
       </c>
       <c r="M41" s="3"/>
       <c r="O41" s="3"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>90</v>
+        <v>64</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>502</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>128</v>
+        <v>482</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="M42" s="3"/>
       <c r="O42" s="3"/>
@@ -3043,2839 +3786,3526 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>419</v>
+        <v>333</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>419</v>
+        <v>333</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>428</v>
+        <v>342</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>24</v>
+        <v>563</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>429</v>
+        <v>343</v>
       </c>
       <c r="M44" s="3"/>
       <c r="O44" s="3"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>420</v>
+        <v>334</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>420</v>
+        <v>334</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>427</v>
+        <v>341</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>24</v>
+        <v>563</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>430</v>
+        <v>344</v>
       </c>
       <c r="M45" s="3"/>
       <c r="O45" s="3"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>421</v>
+        <v>335</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>421</v>
+        <v>335</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>426</v>
+        <v>340</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>24</v>
+        <v>563</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>424</v>
+        <v>338</v>
       </c>
       <c r="M46" s="3"/>
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>422</v>
+        <v>336</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>422</v>
+        <v>336</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>425</v>
+        <v>339</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>24</v>
+        <v>563</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>423</v>
+        <v>337</v>
       </c>
       <c r="M47" s="3"/>
       <c r="O47" s="3"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>24</v>
+        <v>563</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="M48" s="3"/>
       <c r="O48" s="3"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>644</v>
+      </c>
       <c r="M49" s="3"/>
-      <c r="Q49" s="3"/>
+      <c r="O49" s="3"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>152</v>
+        <v>642</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>152</v>
+        <v>642</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>231</v>
+        <v>646</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>24</v>
+        <v>563</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>396</v>
-      </c>
+        <v>643</v>
+      </c>
+      <c r="M50" s="3"/>
+      <c r="O50" s="3"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="M51" s="3"/>
+      <c r="Q51" s="3"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>24</v>
+        <v>563</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>431</v>
+        <v>311</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>24</v>
+        <v>563</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>397</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>24</v>
+        <v>563</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>398</v>
+        <v>345</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>387</v>
+        <v>647</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>24</v>
+        <v>563</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M55" s="3"/>
-      <c r="Q55" s="3"/>
+        <v>312</v>
+      </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>380</v>
+        <v>44</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>230</v>
+        <v>187</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>24</v>
+        <v>563</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>399</v>
+        <v>313</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>150</v>
+        <v>405</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>150</v>
+        <v>405</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>233</v>
+        <v>406</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>400</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="M57" s="3"/>
+      <c r="Q57" s="3"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>153</v>
+        <v>407</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>153</v>
+        <v>407</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>232</v>
+        <v>408</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>24</v>
+        <v>563</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>24</v>
+        <v>563</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>401</v>
+        <v>315</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>24</v>
+        <v>563</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>402</v>
+        <v>564</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>24</v>
+        <v>563</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>403</v>
+        <v>316</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>49</v>
+        <v>563</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>404</v>
+        <v>563</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>24</v>
+        <v>563</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>418</v>
+        <v>332</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>449</v>
+        <v>361</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>24</v>
+        <v>563</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>445</v>
+        <v>357</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>445</v>
+        <v>357</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>418</v>
+        <v>332</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>450</v>
+        <v>362</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>24</v>
+        <v>563</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>446</v>
+        <v>358</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>446</v>
+        <v>358</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>418</v>
+        <v>332</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>452</v>
+        <v>363</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>24</v>
+        <v>563</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>447</v>
+        <v>359</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>447</v>
+        <v>359</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>418</v>
+        <v>332</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>451</v>
+        <v>365</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>24</v>
+        <v>563</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="M72" s="3"/>
-      <c r="Q72" s="3"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>198</v>
+        <v>565</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>198</v>
+        <v>565</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>94</v>
+        <v>310</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>245</v>
+        <v>566</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>24</v>
+        <v>558</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="M73" s="3"/>
-      <c r="Q73" s="3"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>187</v>
+        <v>568</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>187</v>
+        <v>568</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>94</v>
+        <v>310</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>237</v>
+        <v>596</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>24</v>
+        <v>563</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="M74" s="3"/>
-      <c r="Q74" s="3"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>189</v>
+        <v>570</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>189</v>
+        <v>570</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>94</v>
+        <v>310</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>246</v>
+        <v>597</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>24</v>
+        <v>563</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="M75" s="3"/>
-      <c r="Q75" s="3"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>190</v>
+        <v>572</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>190</v>
+        <v>572</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>94</v>
+        <v>310</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>238</v>
+        <v>598</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>24</v>
+        <v>563</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="M76" s="3"/>
-      <c r="Q76" s="3"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>191</v>
+        <v>574</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>191</v>
+        <v>574</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>94</v>
+        <v>310</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>239</v>
+        <v>599</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>24</v>
+        <v>563</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="M77" s="3"/>
-      <c r="Q77" s="3"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>194</v>
+        <v>577</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>194</v>
+        <v>577</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>94</v>
+        <v>310</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>24</v>
+        <v>563</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="M78" s="3"/>
-      <c r="Q78" s="3"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>200</v>
+        <v>578</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>200</v>
+        <v>578</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>94</v>
+        <v>310</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>241</v>
+        <v>606</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>24</v>
+        <v>563</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="M79" s="3"/>
-      <c r="Q79" s="3"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>193</v>
+        <v>579</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>193</v>
+        <v>579</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>94</v>
+        <v>310</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>242</v>
+        <v>601</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M80" s="3"/>
-      <c r="Q80" s="3"/>
+        <v>563</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>202</v>
+        <v>580</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>202</v>
+        <v>594</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>94</v>
+        <v>310</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>243</v>
+        <v>607</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M81" s="3"/>
-      <c r="Q81" s="3"/>
+        <v>563</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>185</v>
+        <v>581</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>185</v>
+        <v>581</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>94</v>
+        <v>310</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>247</v>
+        <v>602</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M82" s="3"/>
-      <c r="Q82" s="3"/>
+        <v>563</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>186</v>
+        <v>582</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>186</v>
+        <v>582</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>94</v>
+        <v>310</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>248</v>
+        <v>603</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M83" s="3"/>
-      <c r="Q83" s="3"/>
+        <v>563</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>188</v>
+        <v>583</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>188</v>
+        <v>583</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>94</v>
+        <v>310</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>244</v>
+        <v>604</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M84" s="3"/>
-      <c r="Q84" s="3"/>
+        <v>563</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>196</v>
+        <v>584</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>196</v>
+        <v>595</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>94</v>
+        <v>310</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>249</v>
+        <v>605</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M85" s="3"/>
-      <c r="Q85" s="3"/>
+        <v>563</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>201</v>
+        <v>585</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>201</v>
+        <v>585</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>94</v>
+        <v>310</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>250</v>
+        <v>608</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M86" s="3"/>
-      <c r="Q86" s="3"/>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M87" s="3"/>
-      <c r="Q87" s="3"/>
+        <v>563</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>381</v>
+        <v>157</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="E88" s="1" t="s">
-        <v>24</v>
+        <v>563</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>320</v>
       </c>
       <c r="M88" s="3"/>
       <c r="Q88" s="3"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>253</v>
+        <v>162</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>24</v>
+        <v>563</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>323</v>
       </c>
       <c r="M89" s="3"/>
       <c r="Q89" s="3"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>254</v>
+        <v>198</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>24</v>
+        <v>563</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="M90" s="3"/>
       <c r="Q90" s="3"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>325</v>
+      </c>
       <c r="M91" s="3"/>
       <c r="Q91" s="3"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>259</v>
+        <v>199</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="M92" s="3"/>
+      <c r="Q92" s="3"/>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="M93" s="3"/>
+      <c r="Q93" s="3"/>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>258</v>
+        <v>201</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="M94" s="3"/>
+      <c r="Q94" s="3"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>256</v>
+        <v>202</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="M95" s="3"/>
+      <c r="Q95" s="3"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>257</v>
+        <v>203</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+        <v>563</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="M96" s="3"/>
+      <c r="Q96" s="3"/>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="M97" s="3"/>
+      <c r="Q97" s="3"/>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="M98" s="3"/>
+      <c r="Q98" s="3"/>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="M99" s="3"/>
+      <c r="Q99" s="3"/>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="M100" s="3"/>
+      <c r="Q100" s="3"/>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="M101" s="3"/>
+      <c r="Q101" s="3"/>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="M102" s="3"/>
+      <c r="Q102" s="3"/>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="M103" s="3"/>
+      <c r="Q103" s="3"/>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="M104" s="3"/>
+      <c r="Q104" s="3"/>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="M105" s="3"/>
+      <c r="Q105" s="3"/>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="M106" s="3"/>
+      <c r="Q106" s="3"/>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M107" s="3"/>
+      <c r="Q107" s="3"/>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F109" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D98" s="1" t="s">
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M135" s="3"/>
+      <c r="Q135" s="3"/>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A136" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A137" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A138" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A139" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A140" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F140" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D99" s="1" t="s">
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A141" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F141" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D100" s="1" t="s">
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A142" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F142" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D101" s="1" t="s">
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A143" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F143" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="E101" s="1" t="s">
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A144" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F144" s="4" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F145" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D117" s="1" t="s">
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C166" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C168" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C186" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C188" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189" s="4"/>
+      <c r="B189" s="4"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E117" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="M119" s="3"/>
-      <c r="Q119" s="3"/>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A120" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A121" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A122" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A123" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A124" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A125" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A126" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A127" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A128" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C151" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C153" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C155" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C157" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C159" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160" s="4"/>
-      <c r="B160" s="4"/>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A161" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F161" s="2"/>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A162" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G162" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A164" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F164" s="2"/>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F165" s="2"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F166" s="2"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F167" s="2"/>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F168" s="2"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A169" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F169" s="2"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A170" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F170" s="2"/>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A171" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F171" s="2"/>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A172" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F172" s="2"/>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A173" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F173" s="2"/>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A174" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F174" s="2"/>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A175" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F175" s="2"/>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A176" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F176" s="2"/>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A177" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F177" s="2"/>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A178" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F178" s="2"/>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A179" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F179" s="2"/>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A180" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F180" s="2"/>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A181" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F181" s="2"/>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F182" s="2"/>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A183" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F183" s="2"/>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F184" s="2"/>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A185" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F185" s="2"/>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A186" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F186" s="2"/>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A187" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F187" s="2"/>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F188" s="2"/>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A189" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F189" s="2"/>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A190" s="1" t="s">
-        <v>391</v>
-      </c>
       <c r="B190" s="1" t="s">
-        <v>66</v>
+        <v>264</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>328</v>
+        <v>282</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>24</v>
+        <v>563</v>
       </c>
       <c r="F190" s="2"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>299</v>
+        <v>386</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>299</v>
+        <v>386</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>329</v>
+        <v>387</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F191" s="2"/>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+        <v>563</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>303</v>
+        <v>36</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>303</v>
+        <v>36</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>332</v>
+        <v>252</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F192" s="2"/>
+        <v>563</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>314</v>
+        <v>258</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>314</v>
+        <v>258</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>346</v>
+        <v>273</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F193" s="2"/>
+        <v>563</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F194" s="2"/>
+      <c r="A194" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C195" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F195" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>167</v>
+        <v>257</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>167</v>
+        <v>257</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>348</v>
+        <v>275</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>24</v>
+        <v>563</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>168</v>
+        <v>263</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>168</v>
+        <v>263</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>349</v>
+        <v>281</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>24</v>
+        <v>563</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>350</v>
+        <v>266</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>24</v>
+        <v>563</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>376</v>
+        <v>261</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>179</v>
+        <v>261</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>351</v>
+        <v>279</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>24</v>
+        <v>563</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>170</v>
+        <v>535</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>170</v>
+        <v>535</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>352</v>
+        <v>277</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>24</v>
+        <v>563</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>171</v>
+        <v>390</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>171</v>
+        <v>390</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>24</v>
+        <v>563</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>172</v>
+        <v>262</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>172</v>
+        <v>262</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>354</v>
+        <v>280</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>24</v>
+        <v>563</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>355</v>
+        <v>278</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>24</v>
+        <v>563</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>174</v>
+        <v>254</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>174</v>
+        <v>254</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>356</v>
+        <v>271</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F205" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>175</v>
+        <v>259</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>175</v>
+        <v>259</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>357</v>
+        <v>276</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F206" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A207" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B207" s="4" t="s">
-        <v>176</v>
+      <c r="A207" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>412</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>358</v>
+        <v>413</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>24</v>
+        <v>563</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>359</v>
+        <v>267</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+        <v>563</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>178</v>
+        <v>392</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>178</v>
+        <v>392</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B211" s="4" t="s">
-        <v>158</v>
+        <v>563</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>361</v>
+        <v>269</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B212" s="4" t="s">
-        <v>160</v>
+        <v>563</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>394</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B213" s="4" t="s">
-        <v>161</v>
+        <v>563</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>253</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B214" s="4" t="s">
-        <v>162</v>
+        <v>428</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>364</v>
+        <v>272</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B215" s="4" t="s">
-        <v>159</v>
+        <v>428</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>533</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>365</v>
+        <v>534</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B216" s="4" t="s">
-        <v>163</v>
+        <v>428</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B216" s="1" t="s">
+        <v>556</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>366</v>
+        <v>557</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B217" s="4" t="s">
-        <v>164</v>
+        <v>558</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B217" s="1" t="s">
+        <v>560</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>367</v>
+        <v>562</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B218" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="B219" s="4" t="s">
-        <v>166</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F218" s="2"/>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C219" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>24</v>
+        <v>183</v>
+      </c>
+      <c r="F219" s="2"/>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A224" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A226" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F229" s="2"/>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A230" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F230" s="2"/>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A231" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A232" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A233" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A235" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A236" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A237" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A238" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A239" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A240" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>563</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S21">
     <sortCondition ref="A2:A21"/>
   </sortState>
-  <conditionalFormatting sqref="B110:B1048576 B1:B65 B71:B96">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+  <conditionalFormatting sqref="B126:B169 B1:B22 B87:B112 B43:B66 B185:B1048576">
+    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+  <conditionalFormatting sqref="A219:A1048576 A1:A217">
+    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E42">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F136:F155">
+    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:B42">
+    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:D42">
+    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F157">
+    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B74:B86">
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B170:B184">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D170:D184">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/data/geography_data.xlsx
+++ b/data/geography_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\anp-website\alexandpedro.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A6564B-8C55-4903-96C2-86644A098E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5934951-976B-4AC7-B0AA-EA71BAD0D161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geography_data" sheetId="1" r:id="rId1"/>
@@ -960,9 +960,6 @@
     <t>No-slan</t>
   </si>
   <si>
-    <t xml:space="preserve">e-spa Island </t>
-  </si>
-  <si>
     <t>He-rlan</t>
   </si>
   <si>
@@ -1978,6 +1975,9 @@
   </si>
   <si>
     <t>Hachiko-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-spa Island </t>
   </si>
 </sst>
 </file>
@@ -2467,7 +2467,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2478,13 +2478,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2984,9 +2977,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S243"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K60" sqref="K60"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2994,7 +2987,7 @@
     <col min="1" max="2" width="15.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="17" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="31" style="1" customWidth="1"/>
     <col min="7" max="12" width="9.140625" style="1"/>
     <col min="13" max="13" width="44.7109375" style="1" customWidth="1"/>
@@ -3022,379 +3015,379 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="M4" s="7"/>
-      <c r="Q4" s="7"/>
-    </row>
-    <row r="5" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="M4" s="3"/>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="7"/>
-      <c r="Q6" s="7"/>
-    </row>
-    <row r="7" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="M6" s="3"/>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="7"/>
-      <c r="Q7" s="7"/>
-    </row>
-    <row r="8" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="M7" s="3"/>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="S8" s="3"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="7"/>
-      <c r="S8" s="7"/>
-    </row>
-    <row r="9" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="7"/>
-      <c r="R9" s="7"/>
-    </row>
-    <row r="10" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="7"/>
-      <c r="Q10" s="7"/>
-    </row>
-    <row r="11" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-    </row>
-    <row r="12" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="B12" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="B13" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="M12" s="7"/>
-      <c r="R12" s="7"/>
-    </row>
-    <row r="13" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="M13" s="3"/>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="B15" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="M13" s="7"/>
-      <c r="R13" s="7"/>
-    </row>
-    <row r="14" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" s="7"/>
-      <c r="Q14" s="7"/>
-    </row>
-    <row r="15" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="6" t="s">
+      <c r="M15" s="3"/>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="M15" s="7"/>
-      <c r="P15" s="7"/>
-    </row>
-    <row r="16" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M16" s="7"/>
-      <c r="R16" s="7"/>
-    </row>
-    <row r="17" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M17" s="7"/>
-      <c r="Q17" s="7"/>
-    </row>
-    <row r="18" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7"/>
-      <c r="P18" s="7"/>
-    </row>
-    <row r="19" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="M19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="M19" s="7"/>
-      <c r="O19" s="7"/>
-    </row>
-    <row r="20" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="M20" s="7"/>
-      <c r="R20" s="7"/>
-    </row>
-    <row r="21" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="M20" s="3"/>
+      <c r="R20" s="3"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M21" s="7"/>
-      <c r="Q21" s="7"/>
+      <c r="M21" s="3"/>
+      <c r="Q21" s="3"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M22" s="3"/>
@@ -3408,13 +3401,13 @@
         <v>66</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>463</v>
+        <v>482</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>462</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M23" s="3"/>
       <c r="O23" s="3"/>
@@ -3427,10 +3420,10 @@
         <v>21</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>464</v>
+        <v>483</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>463</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>26</v>
@@ -3440,38 +3433,38 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>465</v>
+        <v>484</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>464</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M25" s="3"/>
       <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>466</v>
+        <v>485</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>465</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="M26" s="3"/>
       <c r="O26" s="3"/>
@@ -3484,13 +3477,13 @@
         <v>68</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>467</v>
+        <v>486</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M27" s="3"/>
       <c r="O27" s="3"/>
@@ -3503,10 +3496,10 @@
         <v>69</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>468</v>
+        <v>487</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>31</v>
@@ -3522,13 +3515,13 @@
         <v>167</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>469</v>
+        <v>488</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>468</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M29" s="3"/>
       <c r="O29" s="3"/>
@@ -3541,10 +3534,10 @@
         <v>168</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>470</v>
+        <v>489</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>469</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>22</v>
@@ -3560,10 +3553,10 @@
         <v>169</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>471</v>
+        <v>490</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>470</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>24</v>
@@ -3579,13 +3572,13 @@
         <v>111</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>472</v>
+        <v>491</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M32" s="3"/>
       <c r="O32" s="3"/>
@@ -3598,13 +3591,13 @@
         <v>178</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>473</v>
+        <v>492</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>472</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M33" s="3"/>
       <c r="O33" s="3"/>
@@ -3617,13 +3610,13 @@
         <v>179</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>474</v>
+        <v>493</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>473</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="M34" s="3"/>
       <c r="O34" s="3"/>
@@ -3636,13 +3629,13 @@
         <v>70</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>475</v>
+        <v>494</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>474</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M35" s="3"/>
       <c r="O35" s="3"/>
@@ -3655,13 +3648,13 @@
         <v>181</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>476</v>
+        <v>495</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>475</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M36" s="3"/>
       <c r="O36" s="3"/>
@@ -3674,13 +3667,13 @@
         <v>180</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>477</v>
+        <v>496</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>476</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M37" s="3"/>
       <c r="O37" s="3"/>
@@ -3693,10 +3686,10 @@
         <v>182</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>478</v>
+        <v>497</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>477</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>17</v>
@@ -3712,10 +3705,10 @@
         <v>5</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>479</v>
+        <v>498</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>478</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>18</v>
@@ -3731,13 +3724,13 @@
         <v>183</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>480</v>
+        <v>499</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>479</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M40" s="3"/>
       <c r="O40" s="3"/>
@@ -3750,13 +3743,13 @@
         <v>82</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>481</v>
+        <v>500</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>480</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M41" s="3"/>
       <c r="O41" s="3"/>
@@ -3769,10 +3762,10 @@
         <v>64</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>482</v>
+        <v>501</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>481</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>27</v>
@@ -3786,88 +3779,88 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="M44" s="3"/>
       <c r="O44" s="3"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M45" s="3"/>
       <c r="O45" s="3"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M46" s="3"/>
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M47" s="3"/>
       <c r="O47" s="3"/>
@@ -3886,7 +3879,7 @@
         <v>184</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>67</v>
@@ -3896,44 +3889,44 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="M49" s="3"/>
       <c r="O49" s="3"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="M50" s="3"/>
       <c r="O50" s="3"/>
@@ -3956,15 +3949,15 @@
         <v>192</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>20</v>
@@ -3976,7 +3969,7 @@
         <v>186</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>35</v>
@@ -3996,15 +3989,15 @@
         <v>195</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>45</v>
@@ -4016,10 +4009,10 @@
         <v>191</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
@@ -4036,52 +4029,52 @@
         <v>187</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M57" s="3"/>
       <c r="Q57" s="3"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
@@ -4098,10 +4091,10 @@
         <v>194</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
@@ -4118,10 +4111,10 @@
         <v>193</v>
       </c>
       <c r="E60" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>563</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
@@ -4138,10 +4131,10 @@
         <v>188</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
@@ -4158,10 +4151,10 @@
         <v>196</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
@@ -4178,7 +4171,7 @@
         <v>185</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>34</v>
@@ -4198,10 +4191,10 @@
         <v>190</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -4218,390 +4211,390 @@
         <v>189</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D73" s="1" t="s">
+      <c r="E73" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>568</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>572</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>585</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
@@ -4618,10 +4611,10 @@
         <v>197</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M88" s="3"/>
       <c r="Q88" s="3"/>
@@ -4640,10 +4633,10 @@
         <v>206</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M89" s="3"/>
       <c r="Q89" s="3"/>
@@ -4662,10 +4655,10 @@
         <v>198</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M90" s="3"/>
       <c r="Q90" s="3"/>
@@ -4684,10 +4677,10 @@
         <v>207</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M91" s="3"/>
       <c r="Q91" s="3"/>
@@ -4706,10 +4699,10 @@
         <v>199</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M92" s="3"/>
       <c r="Q92" s="3"/>
@@ -4728,10 +4721,10 @@
         <v>200</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M93" s="3"/>
       <c r="Q93" s="3"/>
@@ -4750,10 +4743,10 @@
         <v>201</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M94" s="3"/>
       <c r="Q94" s="3"/>
@@ -4772,10 +4765,10 @@
         <v>202</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M95" s="3"/>
       <c r="Q95" s="3"/>
@@ -4794,10 +4787,10 @@
         <v>203</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M96" s="3"/>
       <c r="Q96" s="3"/>
@@ -4816,10 +4809,10 @@
         <v>204</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M97" s="3"/>
       <c r="Q97" s="3"/>
@@ -4838,10 +4831,10 @@
         <v>208</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="M98" s="3"/>
       <c r="Q98" s="3"/>
@@ -4860,10 +4853,10 @@
         <v>209</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="M99" s="3"/>
       <c r="Q99" s="3"/>
@@ -4882,10 +4875,10 @@
         <v>205</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="M100" s="3"/>
       <c r="Q100" s="3"/>
@@ -4904,10 +4897,10 @@
         <v>210</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M101" s="3"/>
       <c r="Q101" s="3"/>
@@ -4926,10 +4919,10 @@
         <v>211</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="M102" s="3"/>
       <c r="Q102" s="3"/>
@@ -4948,39 +4941,39 @@
         <v>212</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M103" s="3"/>
       <c r="Q103" s="3"/>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="M104" s="3"/>
       <c r="Q104" s="3"/>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>163</v>
@@ -4992,10 +4985,10 @@
         <v>213</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M105" s="3"/>
       <c r="Q105" s="3"/>
@@ -5014,10 +5007,10 @@
         <v>214</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="M106" s="3"/>
       <c r="Q106" s="3"/>
@@ -5028,7 +5021,7 @@
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>100</v>
@@ -5040,10 +5033,10 @@
         <v>219</v>
       </c>
       <c r="E108" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F108" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.2">
@@ -5060,10 +5053,10 @@
         <v>215</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.2">
@@ -5080,10 +5073,10 @@
         <v>218</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.2">
@@ -5100,10 +5093,10 @@
         <v>216</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.2">
@@ -5120,218 +5113,218 @@
         <v>217</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>167</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>167</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>167</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>167</v>
       </c>
       <c r="D117" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E117" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E117" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="F117" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>168</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>168</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>168</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>168</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>168</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>168</v>
       </c>
       <c r="D124" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F124" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>169</v>
@@ -5340,10 +5333,10 @@
         <v>225</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -5360,10 +5353,10 @@
         <v>226</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -5377,13 +5370,13 @@
         <v>169</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.2">
@@ -5400,10 +5393,10 @@
         <v>222</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.2">
@@ -5420,10 +5413,10 @@
         <v>221</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.2">
@@ -5440,10 +5433,10 @@
         <v>223</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.2">
@@ -5460,10 +5453,10 @@
         <v>220</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.2">
@@ -5480,10 +5473,10 @@
         <v>224</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.2">
@@ -5497,13 +5490,13 @@
         <v>169</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.2">
@@ -5524,10 +5517,10 @@
         <v>245</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.2">
@@ -5544,10 +5537,10 @@
         <v>238</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.2">
@@ -5564,10 +5557,10 @@
         <v>237</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.2">
@@ -5584,10 +5577,10 @@
         <v>235</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.2">
@@ -5604,10 +5597,10 @@
         <v>234</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.2">
@@ -5624,10 +5617,10 @@
         <v>229</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.2">
@@ -5644,10 +5637,10 @@
         <v>240</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.2">
@@ -5664,10 +5657,10 @@
         <v>230</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.2">
@@ -5684,10 +5677,10 @@
         <v>227</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
@@ -5704,10 +5697,10 @@
         <v>236</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
@@ -5724,30 +5717,30 @@
         <v>228</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
@@ -5764,10 +5757,10 @@
         <v>241</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
@@ -5784,10 +5777,10 @@
         <v>233</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -5804,10 +5797,10 @@
         <v>231</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
@@ -5824,10 +5817,10 @@
         <v>239</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
@@ -5844,10 +5837,10 @@
         <v>243</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
@@ -5864,10 +5857,10 @@
         <v>242</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
@@ -5884,10 +5877,10 @@
         <v>232</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
@@ -5904,10 +5897,10 @@
         <v>244</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
@@ -5924,10 +5917,10 @@
         <v>250</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
@@ -5944,10 +5937,10 @@
         <v>251</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
@@ -5964,30 +5957,30 @@
         <v>246</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
@@ -6004,10 +5997,10 @@
         <v>249</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
@@ -6024,10 +6017,10 @@
         <v>247</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
@@ -6044,10 +6037,10 @@
         <v>248</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
@@ -6062,257 +6055,257 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>180</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>180</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>180</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>180</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>180</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>180</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>180</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>180</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>180</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>180</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>180</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>180</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>180</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>180</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>180</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
@@ -6343,28 +6336,28 @@
         <v>282</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F190" s="2"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G191" s="3" t="s">
         <v>33</v>
@@ -6384,7 +6377,7 @@
         <v>252</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>37</v>
@@ -6404,30 +6397,30 @@
         <v>273</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
@@ -6444,7 +6437,7 @@
         <v>265</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>255</v>
@@ -6464,7 +6457,7 @@
         <v>274</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>255</v>
@@ -6484,10 +6477,10 @@
         <v>275</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
@@ -6504,10 +6497,10 @@
         <v>281</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
@@ -6524,7 +6517,7 @@
         <v>266</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>255</v>
@@ -6544,18 +6537,18 @@
         <v>279</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>5</v>
@@ -6564,30 +6557,30 @@
         <v>277</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
@@ -6604,10 +6597,10 @@
         <v>280</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
@@ -6624,10 +6617,10 @@
         <v>278</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
@@ -6644,10 +6637,10 @@
         <v>271</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
@@ -6664,30 +6657,30 @@
         <v>276</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
@@ -6704,30 +6697,30 @@
         <v>267</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
@@ -6744,10 +6737,10 @@
         <v>268</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
@@ -6764,30 +6757,30 @@
         <v>269</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
@@ -6804,10 +6797,10 @@
         <v>270</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
@@ -6824,64 +6817,64 @@
         <v>272</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B216" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D216" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E216" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="E216" s="1" t="s">
+      <c r="F216" s="2" t="s">
         <v>558</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B217" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
@@ -6907,7 +6900,7 @@
         <v>283</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
@@ -6924,7 +6917,7 @@
         <v>284</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
@@ -6941,12 +6934,12 @@
         <v>285</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>144</v>
@@ -6958,7 +6951,7 @@
         <v>286</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
@@ -6975,7 +6968,7 @@
         <v>287</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
@@ -6992,7 +6985,7 @@
         <v>288</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
@@ -7009,7 +7002,7 @@
         <v>289</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
@@ -7026,7 +7019,7 @@
         <v>290</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
@@ -7043,7 +7036,7 @@
         <v>291</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F229" s="2"/>
     </row>
@@ -7061,7 +7054,7 @@
         <v>292</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F230" s="2"/>
     </row>
@@ -7079,7 +7072,7 @@
         <v>293</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
@@ -7096,7 +7089,7 @@
         <v>294</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
@@ -7113,7 +7106,7 @@
         <v>295</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
@@ -7130,7 +7123,7 @@
         <v>296</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
@@ -7147,7 +7140,7 @@
         <v>297</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
@@ -7164,7 +7157,7 @@
         <v>298</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
@@ -7181,7 +7174,7 @@
         <v>299</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
@@ -7198,7 +7191,7 @@
         <v>300</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
@@ -7215,7 +7208,7 @@
         <v>301</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
@@ -7232,7 +7225,7 @@
         <v>302</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
@@ -7249,63 +7242,63 @@
         <v>303</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S21">
     <sortCondition ref="A2:A21"/>
   </sortState>
+  <conditionalFormatting sqref="A219:A1048576 A1:A217">
+    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:B42">
+    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B74:B86">
+    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B126:B169 B1:B22 B87:B112 B43:B66 B185:B1048576">
-    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A219:A1048576 A1:A217">
-    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="14"/>
+  <conditionalFormatting sqref="B170:B184">
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:D42">
+    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D170:D184">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E42">
-    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F136:F155">
-    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:B42">
-    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D42">
-    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F157">
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B74:B86">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B170:B184">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D170:D184">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
